--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -431,8 +431,8 @@
   </sheetPr>
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="W122" sqref="W122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9894,7 +9894,7 @@
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD45"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11947,13 +11947,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD139"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="11.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -19456,6 +19459,504 @@
         <v>-0.3</v>
       </c>
       <c r="Y89" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>深振业A</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>457298.25</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>534171.38</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>969340.5</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>659528.8100000001</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="W90" s="0" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="X90" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y90" s="0" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>000428</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>华天酒店</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>221428.55</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>325743.38</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>677770.38</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <v>567037</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="X91" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y91" s="0" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>002930</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>宏川智慧</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>19284.34</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>33423.22</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>34318.6</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>21195.87</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="V92" s="0" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="W92" s="0" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="X92" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y92" s="0" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>600966</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>博汇纸业</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>91393.92999999999</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>164466.38</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>233805.69</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>149466.94</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V93" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W93" s="0" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="X93" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y93" s="0" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>240006.97</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>369245.22</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>571080.25</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>465876.03</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="W94" s="0" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="X94" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y94" s="0" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>600996</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>贵广网络</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>296540.47</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>382077.5</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>480512.84</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>305656.38</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="W95" s="0" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="X95" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Y95" s="0" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,11 +57,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9891,13 +9894,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="20.625" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -10029,1910 +10035,831 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>300094</t>
+          <t>300084</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>国联水产</t>
+          <t>海默科技</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.34</v>
+        <v>2.71</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3.8</v>
+        <v>2.41</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.43</v>
+        <v>-1.57</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>384796.91</v>
+        <v>190141.98</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>765439.1899999999</v>
+        <v>221968.56</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>905178.8100000001</v>
+        <v>263691.69</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>686084.28</v>
+        <v>72117</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>4.35</v>
+        <v>5.77</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>8.66</v>
+        <v>6.73</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>10.24</v>
+        <v>8</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>7.76</v>
+        <v>2.19</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>0.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>4.42</v>
+        <v>5.27</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>4.46</v>
+        <v>3.53</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.16</v>
+        <v>0.78</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-1.37</v>
+        <v>-0.17</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.51</v>
+        <v>-1.32</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-0.83</v>
+        <v>-2.57</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-3.34</v>
+        <v>-1.88</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>5.9</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>300106</t>
+          <t>300401</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>西部牧业</t>
+          <t>花园生物</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.25</v>
+        <v>3.27</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.54</v>
+        <v>2.58</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-1.41</v>
+        <v>-0.82</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>29927.02</v>
+        <v>89370.41</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>67259.56</v>
+        <v>182564.56</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>78868.58</v>
+        <v>212439.42</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>58756</v>
+        <v>56354.44</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3.18</v>
+        <v>3.37</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3.73</v>
+        <v>3.92</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>2.24</v>
+        <v>5.53</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>1.65</v>
+        <v>3.29</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1.08</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.68</v>
+        <v>-0.47</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-0.22</v>
+        <v>0.8</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-1.84</v>
+        <v>-1.38</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>0.75</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>300133</t>
+          <t>300500</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>华策影视</t>
+          <t>启迪设计</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.37</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.51</v>
+        <v>4.08</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.77</v>
+        <v>1.82</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-1.09</v>
+        <v>-0.33</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>200220.78</v>
+        <v>47843</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>425253.53</v>
+        <v>81297.39999999999</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>461169.44</v>
+        <v>99606.16</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>302177.52</v>
+        <v>26006</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1.24</v>
+        <v>2.91</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>2.63</v>
+        <v>4.95</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2.85</v>
+        <v>6.06</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1.37</v>
+        <v>2.97</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>2.51</v>
+        <v>5.55</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4.33</v>
+        <v>7.09</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-0.78</v>
+        <v>0.12</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.77</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.19</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-2</v>
+        <v>-1.73</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>300183</t>
+          <t>300518</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>东软载波</t>
+          <t>盛讯达</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4.53</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>6.51</v>
+        <v>3.02</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6.46</v>
+        <v>4.13</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-2.19</v>
+        <v>-0.02</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>113860.96</v>
+        <v>20629.84</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>181640.52</v>
+        <v>22181.42</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>226116.81</v>
+        <v>26749.4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>166618.75</v>
+        <v>6932.8</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3.39</v>
+        <v>1.51</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>5.41</v>
+        <v>1.62</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>6.74</v>
+        <v>1.96</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>4.97</v>
+        <v>0.51</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>5.57</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>7</v>
+        <v>3.54</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>6.46</v>
+        <v>5.48</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>-0.05</v>
+        <v>0.99</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-0.39</v>
+        <v>-1.19</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.37</v>
+        <v>-0.64</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1.98</v>
+        <v>-0.76</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-4.37</v>
+        <v>-0.92</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>3.26</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>300292</t>
+          <t>300616</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>吴通控股</t>
+          <t>尚品宅配</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3.52</v>
+        <v>4.76</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.27</v>
+        <v>3.72</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-3.88</v>
+        <v>-1.24</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>351352</v>
+        <v>49096.4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>807057.1899999999</v>
+        <v>76552.66</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1143318.12</v>
+        <v>82245.99000000001</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>721304.37</v>
+        <v>16272</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>3.15</v>
+        <v>3.77</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>7.23</v>
+        <v>5.88</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>10.25</v>
+        <v>6.32</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>6.47</v>
+        <v>1.25</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>2.09</v>
+        <v>4.31</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>5.57</v>
+        <v>4.76</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>7.08</v>
+        <v>5.7</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-0.28</v>
+        <v>0.4</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-0.9</v>
+        <v>0.48</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.29</v>
+        <v>-0.87</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>-1.7</v>
+        <v>-1.45</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-4.16</v>
+        <v>-1.95</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>300447</t>
+          <t>300779</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>全信股份</t>
+          <t>惠城环保</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2.42</v>
+        <v>0.74</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.08</v>
+        <v>6.93</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4.07</v>
+        <v>5.84</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-3.15</v>
+        <v>-1.23</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>32135.3</v>
+        <v>24279.93</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>112361.13</v>
+        <v>43503.5</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>188276.38</v>
+        <v>45404.6</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>105812.27</v>
+        <v>9272</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1.61</v>
+        <v>2.7</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5.62</v>
+        <v>4.84</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>9.43</v>
+        <v>5.05</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>5.3</v>
+        <v>1.03</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>2.42</v>
+        <v>2.91</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>5.02</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>7.29</v>
+        <v>6.84</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-0.36</v>
+        <v>0.05</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-0.73</v>
+        <v>-2.03</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-3.48</v>
+        <v>-1.81</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>2.55</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>300506</t>
+          <t>300915</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>名家汇</t>
+          <t>海融科技</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.84</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3.07</v>
+        <v>2.04</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.02</v>
+        <v>2.62</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-1.72</v>
+        <v>-1.55</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>83527.10000000001</v>
+        <v>4518</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>109245.11</v>
+        <v>9006.5</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>142130.38</v>
+        <v>13317.88</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>80644.45</v>
+        <v>3536</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.91</v>
+        <v>3.63</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>2.48</v>
+        <v>5.37</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3.63</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>4.3</v>
+        <v>2.94</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>4.47</v>
+        <v>3.28</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>-0.79</v>
+        <v>-0.85</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>-0.46</v>
+        <v>0.04</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-2.44</v>
+        <v>-1.91</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>1.17</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>300539</t>
+          <t>301020</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>横河精密</t>
+          <t>密封科技</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.93</v>
+        <v>0.52</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.25</v>
+        <v>5.24</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4.53</v>
+        <v>7.04</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.2</v>
+        <v>-1.29</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>76836.56</v>
+        <v>6293.4</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>87213.75999999999</v>
+        <v>35602.95</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>100086.19</v>
+        <v>50017.72</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>70421.06</v>
+        <v>14621.81</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>4.5</v>
+        <v>0.86</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>5.11</v>
+        <v>4.88</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>5.87</v>
+        <v>6.86</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>4.13</v>
+        <v>2.01</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>4.56</v>
+        <v>9.9</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>6.18</v>
+        <v>10.2</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>3.02</v>
+        <v>-0.28</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>-2.36</v>
+        <v>-0.68</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>-0.7</v>
+        <v>-0.93</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>-2.2</v>
+        <v>-2.61</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-2.3</v>
+        <v>-2.44</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>3.37</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>300633</t>
+          <t>301038</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>开立医疗</t>
+          <t>深水规院</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.63</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.69</v>
+        <v>2.44</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-3.48</v>
+        <v>-0.3</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>35707.11</v>
+        <v>8593.68</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>51164.93</v>
+        <v>19758.77</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>60901.34</v>
+        <v>27902.38</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>51927.64</v>
+        <v>7397.09</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.2</v>
+        <v>4.61</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>1.42</v>
+        <v>6.5</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1.21</v>
+        <v>1.72</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>4.56</v>
+        <v>3</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>2.68</v>
+        <v>3.66</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.95</v>
+        <v>0.54</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-1.17</v>
+        <v>0.06</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-0.31</v>
+        <v>-0.25</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>-2.08</v>
+        <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-3.78</v>
+        <v>-0.91</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>300682</t>
+          <t>301120</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>朗新科技</t>
+          <t>新特电气</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2.58</v>
+        <v>5.83</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.52</v>
+        <v>3.02</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5.06</v>
+        <v>7.64</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.55</v>
+        <v>-3.59</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>66791.44</v>
+        <v>144077.88</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>94836.7</v>
+        <v>158367.48</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>141818.62</v>
+        <v>204346.95</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>195244.64</v>
+        <v>69586.62</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.65</v>
+        <v>25.46</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.92</v>
+        <v>27.98</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>1.38</v>
+        <v>36.11</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3.34</v>
+        <v>7.73</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3.19</v>
+        <v>10.15</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>5.49</v>
+        <v>9.26</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>5.88</v>
+        <v>-1.54</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>-1.49</v>
+        <v>1.52</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>-0.41</v>
+        <v>-2.76</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>-0.65</v>
+        <v>-3.14</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>-0.52</v>
+        <v>-4.38</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>300740</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>水羊股份</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>59985.79</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>110485.61</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>123058.31</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>84332.59</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>300783</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>三只松鼠</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>53442.86</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>77601.39</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>87150.84</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>57435.7</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>300791</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>仙乐健康</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>10391.62</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>12408</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>20556.85</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>11731.5</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>-2.04</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>300825</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>阿尔特</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>43756.33</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>127205.47</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>174741.64</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>140284.37</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>300898</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>熊猫乳品</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>33969.95</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>52111.08</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>106945.33</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>67037.47</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>20.74</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>300932</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>三友联众</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>19413.65</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>36220.97</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>82949.42999999999</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>110903.05</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>301002</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>崧盛股份</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>14132.95</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>35560.86</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>51998.28</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>34500.17</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>301073</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>君亭酒店</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>24103.13</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>42628.92</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>46031.5</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>21342.32</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>301076</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>新瀚新材</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>-4.13</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>27820.93</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>28970.2</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>33562.95</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>27491.55</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>-2.24</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>-4.72</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>-1.21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>301079</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>邵阳液压</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>7654</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>15644.59</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>34722.95</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>22950.25</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>-3.36</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>301097</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>天益医疗</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>4457.49</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>13259.11</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>13777.23</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>6744.25</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>-1.16</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>-2.44</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>301116</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>益客食品</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>58633.9</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>96690.78</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>139406.77</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>69561.92999999999</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>301235</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>华康医疗</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>14323</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>19525</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>25622.76</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>19244.71</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>2.57</v>
+        <v>19.69</v>
       </c>
     </row>
   </sheetData>
@@ -11949,7 +10876,7 @@
   </sheetPr>
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
@@ -19971,7 +18898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -20109,1744 +19036,997 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000157</t>
+          <t>000715</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>中兴商业</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.94</v>
+        <v>2.03</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>6.44</v>
+        <v>0.77</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.78</v>
+        <v>-1.06</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>313720.31</v>
+        <v>146885.66</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1410597.12</v>
+        <v>222106.95</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1947621.25</v>
+        <v>249689.12</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>919660.09</v>
+        <v>57141</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.44</v>
+        <v>3.54</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2.76</v>
+        <v>6.02</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>4.63</v>
+        <v>2.5</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>8.58</v>
+        <v>1.53</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.17</v>
+        <v>-0.48</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.17</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>0.33</v>
+        <v>-1.07</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-1.71</v>
+        <v>-1.21</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-0.08</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>002043</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>广州浪奇</t>
+          <t>兔宝宝</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.47</v>
+        <v>0.91</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.31</v>
+        <v>6.09</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7.34</v>
+        <v>6.17</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.53</v>
+        <v>-4.28</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>92583.98</v>
+        <v>388819.91</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>216091.91</v>
+        <v>794260</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>637155.6899999999</v>
+        <v>944806.9399999999</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>328501.31</v>
+        <v>308676.35</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.59</v>
+        <v>5.61</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.37</v>
+        <v>11.46</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>4.05</v>
+        <v>13.63</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2.09</v>
+        <v>4.45</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3.76</v>
+        <v>7.45</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>9.6</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.87</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.58</v>
+        <v>-0.68</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-0.29</v>
+        <v>-0.75</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.28</v>
+        <v>-1.99</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-2.63</v>
+        <v>-4.94</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1.65</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>000610</t>
+          <t>002078</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>西安旅游</t>
+          <t>太阳纸业</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.28</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.22</v>
+        <v>2.02</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>6.24</v>
+        <v>1.81</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-0.37</v>
+        <v>0.08</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>136109.38</v>
+        <v>244525.84</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>280849.84</v>
+        <v>300397.56</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>433287.44</v>
+        <v>406811.97</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>380927.01</v>
+        <v>78625.17999999999</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>5.78</v>
+        <v>0.89</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>11.93</v>
+        <v>1.09</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>18.4</v>
+        <v>1.48</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>16.18</v>
+        <v>0.29</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.9</v>
+        <v>2.03</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>4.79</v>
+        <v>2.44</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>8.359999999999999</v>
+        <v>3.46</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>2.56</v>
+        <v>0.73</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-2.4</v>
+        <v>-0.34</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>-0.75</v>
+        <v>-0.34</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>-0.46</v>
+        <v>-0.49</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-3.19</v>
+        <v>-0.57</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.57</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>000799</t>
+          <t>002198</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>酒鬼酒</t>
+          <t>嘉应制药</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5.63</v>
+        <v>5.73</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.65</v>
+        <v>-0.5</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>71510.81</v>
+        <v>63835</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>110325.73</v>
+        <v>185484.88</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>173887.69</v>
+        <v>211312.22</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>119533.22</v>
+        <v>77503</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>2.2</v>
+        <v>1.26</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>5.35</v>
+        <v>4.16</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3.68</v>
+        <v>1.53</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>4.27</v>
+        <v>0.98</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3.61</v>
+        <v>5.15</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>7.61</v>
+        <v>6.92</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>3.42</v>
+        <v>2.27</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-0.58</v>
+        <v>-0.7</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>-0.63</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>0.15</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>002562</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>东莞控股</t>
+          <t>兄弟科技</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5.08</v>
+        <v>7.31</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-1.84</v>
+        <v>-2.9</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>25018.74</v>
+        <v>150860.41</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>159069.88</v>
+        <v>457370.81</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>223865.08</v>
+        <v>1129094.12</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>129705.59</v>
+        <v>443692.22</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.24</v>
+        <v>2.16</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.53</v>
+        <v>6.54</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>2.15</v>
+        <v>16.13</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>1.25</v>
+        <v>6.34</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>6.24</v>
+        <v>6.44</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>7.72</v>
+        <v>8.59</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-0.11</v>
+        <v>-0.57</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.32</v>
+        <v>-0.38</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>-1.22</v>
+        <v>0.18</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-2.71</v>
+        <v>-3.07</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>000860</t>
+          <t>002596</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>顺鑫农业</t>
+          <t>海南瑞泽</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2.67</v>
+        <v>1.17</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.67</v>
+        <v>1.97</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-1.7</v>
+        <v>0.28</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>154823.59</v>
+        <v>252728</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>162058.73</v>
+        <v>338594.09</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>171689.05</v>
+        <v>533087.0600000001</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>125155.7</v>
+        <v>164221</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.09</v>
+        <v>2.43</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2.31</v>
+        <v>5.12</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3.57</v>
+        <v>3.66</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.6</v>
+        <v>1.66</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.58</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.29</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-0.55</v>
+        <v>-1.13</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-2.14</v>
+        <v>0.28</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>华铁股份</t>
+          <t>瀛通通讯</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.84</v>
+        <v>0.66</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.03</v>
+        <v>2.06</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5.74</v>
+        <v>1.69</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-2.04</v>
+        <v>-0.79</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>224546.91</v>
+        <v>35339.9</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>819914.5</v>
+        <v>36915.8</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>915980.9399999999</v>
+        <v>112777.6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>457946.65</v>
+        <v>38482</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.41</v>
+        <v>3.26</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>5.14</v>
+        <v>3.41</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>5.74</v>
+        <v>10.41</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>2.87</v>
+        <v>3.55</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3.1</v>
+        <v>4.39</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>7.79</v>
+        <v>2.8</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>7.66</v>
+        <v>7.98</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>-0.45</v>
+        <v>0.79</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.26</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-2.94</v>
+        <v>-2.46</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>-0.9</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>002205</t>
+          <t>002942</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>国统股份</t>
+          <t>新农股份</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.18</v>
+        <v>1.01</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3.12</v>
+        <v>6.7</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2.59</v>
+        <v>4.86</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-1.01</v>
+        <v>-0.05</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>48454.2</v>
+        <v>10523.86</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>90049.22</v>
+        <v>42545.65</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>122380.6</v>
+        <v>54792.61</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>77553.05</v>
+        <v>10531.13</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>2.61</v>
+        <v>0.76</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4.85</v>
+        <v>3.08</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>6.59</v>
+        <v>3.97</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>4.18</v>
+        <v>0.76</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.54</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>3.65</v>
+        <v>7.53</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>3.37</v>
+        <v>5.91</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>-0.53</v>
+        <v>0.16</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>-0.09</v>
+        <v>1.12</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>-1.21</v>
+        <v>0.42</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-1.52</v>
+        <v>-1.75</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>1.12</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>600189</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>泉阳泉</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1.26</v>
+        <v>0.15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.34</v>
+        <v>1.72</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-2.06</v>
+        <v>-0.85</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>405366.41</v>
+        <v>50639</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>793250</v>
+        <v>85779.28</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>842241.4399999999</v>
+        <v>147550.09</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>573269.9399999999</v>
+        <v>26244.3</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>4.69</v>
+        <v>0.71</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>9.18</v>
+        <v>1.2</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>9.75</v>
+        <v>2.06</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>6.64</v>
+        <v>0.37</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1.58</v>
+        <v>0.44</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>6.85</v>
+        <v>2.2</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>4.26</v>
+        <v>2.59</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>-0.15</v>
+        <v>0.14</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-1.58</v>
+        <v>-0.73</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-0.62</v>
+        <v>-0.59</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>-0.91</v>
+        <v>-0.57</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-2.79</v>
+        <v>-0.99</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>-0.82</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>002372</t>
+          <t>600200</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>伟星新材</t>
+          <t>江苏吴中</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>226192.09</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>426718.94</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>427988.84</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>131620.97</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>3.19</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>33984.33</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>69024.96000000001</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>97651.24000000001</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>95326.88</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0.23</v>
-      </c>
       <c r="M11" s="0" t="n">
-        <v>0.47</v>
+        <v>6.02</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.67</v>
+        <v>6.04</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.65</v>
+        <v>1.86</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3.92</v>
+        <v>5.62</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>2.29</v>
+        <v>1.57</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>-0.97</v>
+        <v>-1.56</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>-0.55</v>
+        <v>-0.72</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>-0.88</v>
+        <v>-0.79</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>-2.29</v>
+        <v>-1.79</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>-1.73</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>002695</t>
+          <t>600305</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>煌上煌</t>
+          <t>恒顺醋业</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.71</v>
+        <v>0.41</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2.72</v>
+        <v>3.88</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.53</v>
+        <v>-0.84</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>46334</v>
+        <v>101849.17</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>106263.02</v>
+        <v>322430.91</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>161229.3</v>
+        <v>332014.78</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>107065.44</v>
+        <v>72492.16</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>2.29</v>
+        <v>3.21</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>3.47</v>
+        <v>3.31</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2.3</v>
+        <v>0.72</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1.71</v>
+        <v>0.66</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>2.88</v>
+        <v>4.53</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>5.76</v>
+        <v>4.52</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>2.1</v>
+        <v>0.46</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>-0.49</v>
+        <v>-0.42</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>-0.4</v>
+        <v>-0.08</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>-0.3</v>
+        <v>-1.46</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>0.85</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>002732</t>
+          <t>600827</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>燕塘乳业</t>
+          <t>百联股份</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.52</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.41</v>
+        <v>2.07</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4.71</v>
+        <v>1.6</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.75</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>15235</v>
+        <v>62599</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>34403.38</v>
+        <v>156875.58</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>71468.39999999999</v>
+        <v>179145.28</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>46595.95</v>
+        <v>29937.34</v>
       </c>
       <c r="L13" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>2.2</v>
-      </c>
       <c r="N13" s="0" t="n">
-        <v>4.58</v>
+        <v>1.12</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>2.99</v>
+        <v>0.19</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.88</v>
+        <v>0.61</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>2.52</v>
+        <v>3.79</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>4.71</v>
+        <v>3.63</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>-0.51</v>
+        <v>-0.43</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>-1.44</v>
+        <v>-0.91</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.43</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>002852</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>道道全</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>36222</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>71594.59</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>99975.28999999999</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>74328.89999999999</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>002859</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>洁美科技</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>28831.52</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>49227.07</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>70725.48</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>23753.82</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>600258</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>首旅酒店</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>-2.58</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>149542.66</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>221607.31</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>245644.14</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>114164.81</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>600300</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>维维股份</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>129777</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>252767.2</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>301130.59</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>212743.1</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>600429</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>三元股份</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>52291.25</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>138570.55</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>218971.42</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>194328.76</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>-0.78</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>600529</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>山东药玻</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>45682.47</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>164844.42</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>195149.8</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>82087.62</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>600702</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>舍得酒业</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>64939.03</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>65577.11</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>99164.96000000001</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>57411.27</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>-2.38</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>600779</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>水井坊</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>68204.23</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>108742.44</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>120377.7</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>77850.98</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>600826</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>兰生股份</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>31142</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>72819.36</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>80947.39999999999</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>64641.25</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>4.16</v>
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="W122" sqref="W122"/>
@@ -9882,6 +9882,1915 @@
         <v>4.61</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>300094</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>国联水产</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>384796.91</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>765439.1899999999</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>905178.8100000001</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>686084.3100000001</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="X113" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y113" s="0" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>300106</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>西部牧业</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>29927.02</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>67259.56</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>78868.58</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>58756</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="X114" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y114" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>300133</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>华策影视</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>200220.78</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>425253.53</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>461169.44</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>302177.53</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y115" s="0" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>300183</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>东软载波</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>113860.96</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>181640.52</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>226116.81</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>166618.75</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="X116" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y116" s="0" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>300292</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>吴通控股</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>351352</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>807057.1899999999</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>1143318.12</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>721304.38</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="X117" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y117" s="0" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>300447</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>全信股份</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>32135.3</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>112361.13</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>188276.38</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>105812.27</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y118" s="0" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>300506</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>名家汇</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>83527.10000000001</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>109245.11</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>142130.38</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>80644.45</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>300539</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>横河精密</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>76836.56</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>87213.75999999999</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>100086.19</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>70421.06</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="X120" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y120" s="0" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>300633</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>开立医疗</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>35707.11</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>51164.93</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>60901.34</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>51927.64</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>300682</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>朗新科技</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>66791.44</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>94836.7</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>141818.62</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>195244.64</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y122" s="0" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>300740</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>水羊股份</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>59985.79</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>110485.61</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>123058.31</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>84332.59</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y123" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>300783</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>三只松鼠</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>53442.86</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>77601.39</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>87150.84</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>57435.7</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="N124" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="X124" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y124" s="0" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>300791</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>仙乐健康</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>10391.62</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>12408</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>20556.85</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>11731.5</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="N125" s="0" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O125" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S125" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T125" s="0" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="X125" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y125" s="0" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>300825</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>阿尔特</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>43756.33</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>127205.47</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>174741.64</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>140284.38</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y126" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>300898</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>熊猫乳品</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>33969.95</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>52111.08</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>106945.33</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>67037.47</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="M127" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="N127" s="0" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="O127" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="S127" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T127" s="0" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y127" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>300932</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>三友联众</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>19413.65</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>36220.97</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>82949.42999999999</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>110903.05</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y128" s="0" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>301002</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>崧盛股份</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>14132.95</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>35560.86</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>51998.28</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>34500.17</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y129" s="0" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>301073</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>君亭酒店</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>24103.13</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>42628.92</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>46031.5</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>21342.32</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y130" s="0" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>301076</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>新瀚新材</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>-4.13</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>27820.93</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>28970.2</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>33562.95</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>27491.55</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S131" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>-4.72</v>
+      </c>
+      <c r="X131" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y131" s="0" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>301079</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>邵阳液压</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>7654</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>15644.59</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>34722.95</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>22950.25</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="N132" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q132" s="0" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S132" s="0" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="W132" s="0" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="X132" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y132" s="0" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>301097</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>天益医疗</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>4457.49</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>13259.11</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>13777.23</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>6744.25</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N133" s="0" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="O133" s="0" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q133" s="0" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="S133" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="X133" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y133" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>301116</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>益客食品</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>58633.9</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>96690.78</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>139406.77</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>69561.92999999999</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N134" s="0" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="O134" s="0" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q134" s="0" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S134" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T134" s="0" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="X134" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y134" s="0" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>301235</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>华康医疗</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>14323</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>19525</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>25622.76</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>19244.71</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="N135" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q135" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S135" s="0" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T135" s="0" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="X135" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y135" s="0" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9894,7 +11803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
@@ -10058,7 +11967,7 @@
         <v>2.41</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.57</v>
+        <v>-1.25</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>190141.98</v>
@@ -10070,7 +11979,7 @@
         <v>263691.69</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>72117</v>
+        <v>180949</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>5.77</v>
@@ -10082,7 +11991,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>2.19</v>
+        <v>5.49</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>3.05</v>
@@ -10106,13 +12015,13 @@
         <v>-2.57</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-1.88</v>
+        <v>-2.04</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -10141,7 +12050,7 @@
         <v>2.58</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.82</v>
+        <v>-1.26</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>89370.41</v>
@@ -10153,7 +12062,7 @@
         <v>212439.42</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>56354.44</v>
+        <v>122279.52</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1.65</v>
@@ -10165,7 +12074,7 @@
         <v>3.92</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>1.8</v>
@@ -10189,13 +12098,13 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-1.38</v>
+        <v>-2.14</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4">
@@ -10224,7 +12133,7 @@
         <v>1.82</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-0.33</v>
+        <v>-1.78</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>47843</v>
@@ -10236,7 +12145,7 @@
         <v>99606.16</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>26006</v>
+        <v>58905.32</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>2.91</v>
@@ -10248,7 +12157,7 @@
         <v>6.06</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>2.97</v>
@@ -10272,13 +12181,13 @@
         <v>-1.19</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-1.73</v>
+        <v>-2.12</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.5</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="5">
@@ -10307,7 +12216,7 @@
         <v>4.13</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-0.02</v>
+        <v>-0.11</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>20629.84</v>
@@ -10319,7 +12228,7 @@
         <v>26749.4</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>6932.8</v>
+        <v>14149.6</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1.51</v>
@@ -10331,7 +12240,7 @@
         <v>1.96</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.51</v>
+        <v>1.04</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>3.2</v>
@@ -10358,10 +12267,10 @@
         <v>-0.92</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-0.21</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="6">
@@ -10390,7 +12299,7 @@
         <v>3.72</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-1.24</v>
+        <v>-1.83</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>49096.4</v>
@@ -10402,7 +12311,7 @@
         <v>82245.99000000001</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>16272</v>
+        <v>40742.43</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>3.77</v>
@@ -10414,7 +12323,7 @@
         <v>6.32</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>1.25</v>
+        <v>3.13</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>4.31</v>
@@ -10438,13 +12347,13 @@
         <v>-1.45</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-1.95</v>
+        <v>-2.27</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>-0.13</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="7">
@@ -10473,7 +12382,7 @@
         <v>5.84</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-1.23</v>
+        <v>-2.35</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>24279.93</v>
@@ -10485,7 +12394,7 @@
         <v>45404.6</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>9272</v>
+        <v>25963.24</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2.7</v>
@@ -10497,7 +12406,7 @@
         <v>5.05</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1.03</v>
+        <v>2.89</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2.91</v>
@@ -10521,13 +12430,13 @@
         <v>-2.03</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-1.81</v>
+        <v>-2.95</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>4.12</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="8">
@@ -10556,7 +12465,7 @@
         <v>2.62</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-1.55</v>
+        <v>-1.89</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>4518</v>
@@ -10568,7 +12477,7 @@
         <v>13317.88</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3536</v>
+        <v>8099</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>1.82</v>
@@ -10580,7 +12489,7 @@
         <v>5.37</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1.43</v>
+        <v>3.27</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1.42</v>
@@ -10604,13 +12513,13 @@
         <v>0.24</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-1.91</v>
+        <v>-2.49</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>2.79</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="9">
@@ -10639,7 +12548,7 @@
         <v>7.04</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-1.29</v>
+        <v>-2.9</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>6293.4</v>
@@ -10651,7 +12560,7 @@
         <v>50017.72</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>14621.81</v>
+        <v>32928.6</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0.86</v>
@@ -10663,7 +12572,7 @@
         <v>6.86</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>2.01</v>
+        <v>4.52</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>1.2</v>
@@ -10675,7 +12584,7 @@
         <v>10.2</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>-0.28</v>
+        <v>-0.14</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>-0.68</v>
@@ -10687,13 +12596,13 @@
         <v>-2.61</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-2.44</v>
+        <v>-3.36</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>6.07</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="10">
@@ -10722,7 +12631,7 @@
         <v>0.98</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.3</v>
+        <v>1.09</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>8593.68</v>
@@ -10734,7 +12643,7 @@
         <v>27902.38</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>7397.09</v>
+        <v>17618.97</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>2</v>
@@ -10746,7 +12655,7 @@
         <v>6.5</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1.72</v>
+        <v>4.1</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>1.7</v>
@@ -10758,7 +12667,7 @@
         <v>3.66</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.54</v>
+        <v>1.45</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0.06</v>
@@ -10773,10 +12682,10 @@
         <v>-0.91</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>1.17</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
@@ -10805,7 +12714,7 @@
         <v>7.64</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-3.59</v>
+        <v>-0.91</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>144077.88</v>
@@ -10817,7 +12726,7 @@
         <v>204346.95</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>69586.62</v>
+        <v>158788.96</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>25.46</v>
@@ -10829,7 +12738,7 @@
         <v>36.11</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>12.3</v>
+        <v>28.06</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>7.73</v>
@@ -10841,7 +12750,7 @@
         <v>9.26</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>-1.54</v>
+        <v>0.39</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1.52</v>
@@ -10856,10 +12765,93 @@
         <v>-4.38</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>19.69</v>
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>300950</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>德固特</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>22805</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>34004.79</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>125956.69</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>80125.67999999999</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>9.050000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18898,7 +20890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -19059,7 +21051,7 @@
         <v>0.77</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.06</v>
+        <v>-1.37</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>146885.66</v>
@@ -19071,7 +21063,7 @@
         <v>249689.12</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>57141</v>
+        <v>135645.49</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>3.54</v>
@@ -19083,7 +21075,7 @@
         <v>6.02</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1.38</v>
+        <v>3.27</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1.42</v>
@@ -19107,13 +21099,13 @@
         <v>-1.07</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-1.21</v>
+        <v>-1.52</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-0.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -19142,7 +21134,7 @@
         <v>6.17</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-4.28</v>
+        <v>-3.67</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>388819.91</v>
@@ -19154,7 +21146,7 @@
         <v>944806.9399999999</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>308676.35</v>
+        <v>602348.77</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>5.61</v>
@@ -19166,7 +21158,7 @@
         <v>13.63</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>4.45</v>
+        <v>8.69</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>2.12</v>
@@ -19193,10 +21185,10 @@
         <v>-4.94</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>-1.62</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
@@ -19225,7 +21217,7 @@
         <v>1.81</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.08</v>
+        <v>-0.49</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>244525.84</v>
@@ -19237,7 +21229,7 @@
         <v>406811.97</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>78625.17999999999</v>
+        <v>186782.93</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0.89</v>
@@ -19249,7 +21241,7 @@
         <v>1.48</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.29</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>2.03</v>
@@ -19273,13 +21265,13 @@
         <v>-0.49</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-0.57</v>
+        <v>-1.05</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>-0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -19308,7 +21300,7 @@
         <v>5.73</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>63835</v>
@@ -19320,7 +21312,7 @@
         <v>211312.22</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>77503</v>
+        <v>159059.39</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1.26</v>
@@ -19332,7 +21324,7 @@
         <v>4.16</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>1.53</v>
+        <v>3.13</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0.98</v>
@@ -19356,13 +21348,13 @@
         <v>0.53</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-0.5</v>
+        <v>-1.26</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-0.26</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="6">
@@ -19391,7 +21383,7 @@
         <v>7.31</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-2.9</v>
+        <v>-2.56</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>150860.41</v>
@@ -19403,7 +21395,7 @@
         <v>1129094.12</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>443692.22</v>
+        <v>763140.2</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2.16</v>
@@ -19415,7 +21407,7 @@
         <v>16.13</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>6.34</v>
+        <v>10.9</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>1.14</v>
@@ -19439,13 +21431,13 @@
         <v>0.18</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-3.07</v>
+        <v>-3.24</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>2.1</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7">
@@ -19474,7 +21466,7 @@
         <v>1.97</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.28</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>252728</v>
@@ -19486,7 +21478,7 @@
         <v>533087.0600000001</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>164221</v>
+        <v>379485.37</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2.43</v>
@@ -19498,7 +21490,7 @@
         <v>5.12</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1.58</v>
+        <v>3.64</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2.63</v>
@@ -19522,13 +21514,13 @@
         <v>-1.13</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.28</v>
+        <v>-0.83</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -19557,7 +21549,7 @@
         <v>1.69</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.79</v>
+        <v>-1.03</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>35339.9</v>
@@ -19569,7 +21561,7 @@
         <v>112777.6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>38482</v>
+        <v>61320.1</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>3.26</v>
@@ -19581,7 +21573,7 @@
         <v>10.41</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3.55</v>
+        <v>5.66</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>4.39</v>
@@ -19608,10 +21600,10 @@
         <v>-2.46</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>3.81</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="9">
@@ -19622,79 +21614,79 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>002942</t>
+          <t>600189</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>新农股份</t>
+          <t>泉阳泉</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
+        <v>0.15</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4.86</v>
+        <v>1.72</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.05</v>
+        <v>-0.99</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>10523.86</v>
+        <v>50639</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>42545.65</v>
+        <v>85779.28</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>54792.61</v>
+        <v>147550.09</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>10531.13</v>
+        <v>82620.42999999999</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>3.08</v>
+        <v>1.2</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3.97</v>
+        <v>2.06</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1.86</v>
+        <v>0.44</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>7.53</v>
+        <v>2.2</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>5.91</v>
+        <v>2.59</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.16</v>
+        <v>-0.73</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>1.12</v>
+        <v>-0.59</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>0.42</v>
+        <v>-0.57</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-1.75</v>
+        <v>-1.41</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>-0.32</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="10">
@@ -19705,79 +21697,79 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>600189</t>
+          <t>600200</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>泉阳泉</t>
+          <t>江苏吴中</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.85</v>
+        <v>1.57</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>50639</v>
+        <v>226192.09</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>85779.28</v>
+        <v>426718.94</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>147550.09</v>
+        <v>427988.84</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>26244.3</v>
+        <v>369461.81</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.71</v>
+        <v>3.19</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1.2</v>
+        <v>6.02</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>2.06</v>
+        <v>6.04</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.37</v>
+        <v>5.21</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.44</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>2.2</v>
+        <v>5.62</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>2.59</v>
+        <v>3.85</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.14</v>
+        <v>1.57</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-0.73</v>
+        <v>-1.56</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-0.59</v>
+        <v>-0.72</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>-0.57</v>
+        <v>-0.79</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-0.99</v>
+        <v>-2.13</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0.43</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="11">
@@ -19788,79 +21780,79 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>600200</t>
+          <t>600305</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>江苏吴中</t>
+          <t>恒顺醋业</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>101849.17</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>322430.91</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>332014.78</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>156185.41</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V11" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>226192.09</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>426718.94</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>427988.84</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>131620.97</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>-0.79</v>
-      </c>
       <c r="W11" s="0" t="n">
-        <v>-1.79</v>
+        <v>-1.46</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>-0.11</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="12">
@@ -19871,162 +21863,79 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>600305</t>
+          <t>600827</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>恒顺醋业</t>
+          <t>百联股份</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3.88</v>
+        <v>2.07</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3.33</v>
+        <v>1.6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-0.84</v>
+        <v>-1.58</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>101849.17</v>
+        <v>62599</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>322430.91</v>
+        <v>156875.58</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>332014.78</v>
+        <v>179145.28</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>72492.16</v>
+        <v>87159.69</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>3.21</v>
+        <v>0.98</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>3.31</v>
+        <v>1.12</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="P12" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="Q12" s="0" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>0.46</v>
-      </c>
       <c r="T12" s="0" t="n">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>-1.46</v>
+        <v>-1.58</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>-1.41</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>600827</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>百联股份</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>62599</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>156875.58</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>179145.28</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>29937.34</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>1.08</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -31,17 +31,8 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,10 +444,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y135"/>
+  <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A269" sqref="A136:XFD269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -759,7 +750,7 @@
         <v>0.9</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.25</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +834,7 @@
         <v>0.9</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>1.82</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -927,7 +918,7 @@
         <v>0.9</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>0.96</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="6">
@@ -1011,7 +1002,7 @@
         <v>0.9</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>3.67</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1086,7 @@
         <v>0.9</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0.92</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1170,7 @@
         <v>0.9</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>1.3</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -1263,7 +1254,7 @@
         <v>0.9</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>0.21</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="10">
@@ -1347,7 +1338,7 @@
         <v>0.9</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0.11</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="11">
@@ -1431,7 +1422,7 @@
         <v>0.9</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>4.01</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12">
@@ -1515,7 +1506,7 @@
         <v>0.9</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>0.37</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="13">
@@ -1599,7 +1590,7 @@
         <v>0.9</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>0.17</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="14">
@@ -1683,7 +1674,7 @@
         <v>0.9</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>-0.37</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1758,7 @@
         <v>0.9</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>1.65</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="16">
@@ -1851,7 +1842,7 @@
         <v>0.9</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>1.22</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1935,7 +1926,7 @@
         <v>0.9</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>1.1</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2010,7 @@
         <v>0.9</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19">
@@ -2103,7 +2094,7 @@
         <v>0.9</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>2.39</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="20">
@@ -2187,7 +2178,7 @@
         <v>0.9</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>0.58</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="21">
@@ -2271,7 +2262,7 @@
         <v>0.9</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>1.56</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="22">
@@ -2355,7 +2346,7 @@
         <v>0.9</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>0.05</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="23">
@@ -2439,7 +2430,7 @@
         <v>0.9</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>0.68</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2514,7 @@
         <v>0.9</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>-0.14</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="25">
@@ -2607,7 +2598,7 @@
         <v>0.9</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>5.17</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="26">
@@ -2691,7 +2682,7 @@
         <v>0.9</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>3.17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="27">
@@ -2775,7 +2766,7 @@
         <v>0.9</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>3.13</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="28">
@@ -2859,7 +2850,7 @@
         <v>0.02</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>2.49</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29">
@@ -2943,7 +2934,7 @@
         <v>0.02</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>0.87</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="30">
@@ -3027,7 +3018,7 @@
         <v>0.02</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>-0.36</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="31">
@@ -3111,7 +3102,7 @@
         <v>0.02</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>0.38</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3186,7 @@
         <v>0.02</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>-0.34</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="33">
@@ -3279,7 +3270,7 @@
         <v>0.02</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>1.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="34">
@@ -3363,7 +3354,7 @@
         <v>0.02</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3447,7 +3438,7 @@
         <v>0.02</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>-0.16</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="36">
@@ -3531,7 +3522,7 @@
         <v>0.02</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>1.08</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="37">
@@ -3615,7 +3606,7 @@
         <v>0.02</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>1.35</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
@@ -3699,7 +3690,7 @@
         <v>0.02</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>0.77</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39">
@@ -3783,7 +3774,7 @@
         <v>0.02</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>4.17</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="40">
@@ -3867,7 +3858,7 @@
         <v>0.02</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>3.61</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="41">
@@ -3951,7 +3942,7 @@
         <v>0.02</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="42">
@@ -4035,7 +4026,7 @@
         <v>0.02</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="43">
@@ -4119,7 +4110,7 @@
         <v>0.02</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>2.34</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="44">
@@ -4203,7 +4194,7 @@
         <v>0.02</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="45">
@@ -4287,7 +4278,7 @@
         <v>0.02</v>
       </c>
       <c r="Y45" s="0" t="n">
-        <v>0.87</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="46">
@@ -4371,7 +4362,7 @@
         <v>0.02</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>0</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="47">
@@ -4455,7 +4446,7 @@
         <v>0.02</v>
       </c>
       <c r="Y47" s="0" t="n">
-        <v>0.87</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="48">
@@ -4539,7 +4530,7 @@
         <v>0.02</v>
       </c>
       <c r="Y48" s="0" t="n">
-        <v>7.99</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="49">
@@ -4623,7 +4614,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y49" s="0" t="n">
-        <v>9</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="50">
@@ -4707,7 +4698,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="51">
@@ -4791,7 +4782,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y51" s="0" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="52">
@@ -4875,7 +4866,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y52" s="0" t="n">
-        <v>2.4</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="53">
@@ -4959,7 +4950,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y53" s="0" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="54">
@@ -5043,7 +5034,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>0.43</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="55">
@@ -5127,7 +5118,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y55" s="0" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5211,7 +5202,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y56" s="0" t="n">
-        <v>3.88</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="57">
@@ -5295,7 +5286,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>3.59</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="58">
@@ -5379,7 +5370,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>1.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="59">
@@ -5463,7 +5454,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y59" s="0" t="n">
-        <v>3.47</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="60">
@@ -5547,7 +5538,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y60" s="0" t="n">
-        <v>3.88</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="61">
@@ -5631,7 +5622,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y61" s="0" t="n">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="62">
@@ -5715,7 +5706,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y62" s="0" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5799,7 +5790,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y63" s="0" t="n">
-        <v>2.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="64">
@@ -5883,7 +5874,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y64" s="0" t="n">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="65">
@@ -5967,7 +5958,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y65" s="0" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66">
@@ -6051,7 +6042,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y66" s="0" t="n">
-        <v>6.83</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="67">
@@ -6135,7 +6126,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y67" s="0" t="n">
-        <v>1.07</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="68">
@@ -6219,7 +6210,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y68" s="0" t="n">
-        <v>5.78</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="69">
@@ -6303,7 +6294,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y69" s="0" t="n">
-        <v>1.21</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="70">
@@ -6387,7 +6378,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y70" s="0" t="n">
-        <v>7.83</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="71">
@@ -6471,7 +6462,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y71" s="0" t="n">
-        <v>7.06</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="72">
@@ -6555,7 +6546,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y72" s="0" t="n">
-        <v>6.12</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="73">
@@ -6639,7 +6630,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y73" s="0" t="n">
-        <v>0.09</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="74">
@@ -6723,7 +6714,7 @@
         <v>0.29</v>
       </c>
       <c r="Y74" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -6807,7 +6798,7 @@
         <v>0.29</v>
       </c>
       <c r="Y75" s="0" t="n">
-        <v>4.62</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="76">
@@ -6891,7 +6882,7 @@
         <v>0.29</v>
       </c>
       <c r="Y76" s="0" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="77">
@@ -6975,7 +6966,7 @@
         <v>0.29</v>
       </c>
       <c r="Y77" s="0" t="n">
-        <v>-1.54</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="78">
@@ -7059,7 +7050,7 @@
         <v>0.29</v>
       </c>
       <c r="Y78" s="0" t="n">
-        <v>1.59</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="79">
@@ -7143,7 +7134,7 @@
         <v>0.29</v>
       </c>
       <c r="Y79" s="0" t="n">
-        <v>5.85</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="80">
@@ -7311,7 +7302,7 @@
         <v>0.29</v>
       </c>
       <c r="Y81" s="0" t="n">
-        <v>0.47</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="82">
@@ -7395,7 +7386,7 @@
         <v>0.29</v>
       </c>
       <c r="Y82" s="0" t="n">
-        <v>6.44</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="83">
@@ -7479,7 +7470,7 @@
         <v>0.29</v>
       </c>
       <c r="Y83" s="0" t="n">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="84">
@@ -7563,7 +7554,7 @@
         <v>0.29</v>
       </c>
       <c r="Y84" s="0" t="n">
-        <v>1.49</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="85">
@@ -7647,7 +7638,7 @@
         <v>0.29</v>
       </c>
       <c r="Y85" s="0" t="n">
-        <v>1.72</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86">
@@ -7815,7 +7806,7 @@
         <v>0.29</v>
       </c>
       <c r="Y87" s="0" t="n">
-        <v>10.09</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -7899,7 +7890,7 @@
         <v>0.29</v>
       </c>
       <c r="Y88" s="0" t="n">
-        <v>10.42</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="89">
@@ -8067,7 +8058,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y90" s="0" t="n">
-        <v>1.44</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="91">
@@ -8151,7 +8142,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y91" s="0" t="n">
-        <v>3.02</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="92">
@@ -8319,7 +8310,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y93" s="0" t="n">
-        <v>0.97</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="94">
@@ -8403,7 +8394,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y94" s="0" t="n">
-        <v>8.970000000000001</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="95">
@@ -8487,7 +8478,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y95" s="0" t="n">
-        <v>7.82</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="96">
@@ -8571,7 +8562,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y96" s="0" t="n">
-        <v>0.26</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="97">
@@ -8655,7 +8646,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y97" s="0" t="n">
-        <v>1.55</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="98">
@@ -8738,7 +8729,7 @@
         <v>1.18</v>
       </c>
       <c r="Y98" s="0" t="n">
-        <v>0.44</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="99">
@@ -8821,7 +8812,7 @@
         <v>1.18</v>
       </c>
       <c r="Y99" s="0" t="n">
-        <v>0.35</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="100">
@@ -8904,7 +8895,7 @@
         <v>1.18</v>
       </c>
       <c r="Y100" s="0" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8987,7 +8978,7 @@
         <v>1.18</v>
       </c>
       <c r="Y101" s="0" t="n">
-        <v>6.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="102">
@@ -9070,7 +9061,7 @@
         <v>1.18</v>
       </c>
       <c r="Y102" s="0" t="n">
-        <v>3.89</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="103">
@@ -9153,7 +9144,7 @@
         <v>1.18</v>
       </c>
       <c r="Y103" s="0" t="n">
-        <v>1.56</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="104">
@@ -9319,7 +9310,7 @@
         <v>1.18</v>
       </c>
       <c r="Y105" s="0" t="n">
-        <v>4.41</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="106">
@@ -9402,7 +9393,7 @@
         <v>1.18</v>
       </c>
       <c r="Y106" s="0" t="n">
-        <v>1.78</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="107">
@@ -9485,7 +9476,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y107" s="0" t="n">
-        <v>2.05</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="108">
@@ -9568,7 +9559,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y108" s="0" t="n">
-        <v>1.88</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="109">
@@ -9651,7 +9642,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y109" s="0" t="n">
-        <v>1.97</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="110">
@@ -9734,7 +9725,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y110" s="0" t="n">
-        <v>7.58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -9817,7 +9808,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y111" s="0" t="n">
-        <v>-0.36</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="112">
@@ -9983,7 +9974,7 @@
         <v>0.72</v>
       </c>
       <c r="Y113" s="0" t="n">
-        <v>-0.32</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="114">
@@ -10066,7 +10057,7 @@
         <v>0.72</v>
       </c>
       <c r="Y114" s="0" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -10149,7 +10140,7 @@
         <v>0.72</v>
       </c>
       <c r="Y115" s="0" t="n">
-        <v>0.73</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="116">
@@ -10315,7 +10306,7 @@
         <v>0.72</v>
       </c>
       <c r="Y117" s="0" t="n">
-        <v>6.05</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="118">
@@ -10398,7 +10389,7 @@
         <v>0.72</v>
       </c>
       <c r="Y118" s="0" t="n">
-        <v>5.83</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="119">
@@ -10481,7 +10472,7 @@
         <v>0.72</v>
       </c>
       <c r="Y119" s="0" t="n">
-        <v>0.73</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="120">
@@ -10564,7 +10555,7 @@
         <v>0.72</v>
       </c>
       <c r="Y120" s="0" t="n">
-        <v>4.47</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="121">
@@ -10647,7 +10638,7 @@
         <v>0.72</v>
       </c>
       <c r="Y121" s="0" t="n">
-        <v>0.43</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="122">
@@ -10730,7 +10721,7 @@
         <v>0.72</v>
       </c>
       <c r="Y122" s="0" t="n">
-        <v>4.72</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="123">
@@ -10813,7 +10804,7 @@
         <v>0.72</v>
       </c>
       <c r="Y123" s="0" t="n">
-        <v>1.25</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="124">
@@ -10896,7 +10887,7 @@
         <v>0.72</v>
       </c>
       <c r="Y124" s="0" t="n">
-        <v>0.37</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="125">
@@ -10979,7 +10970,7 @@
         <v>0.72</v>
       </c>
       <c r="Y125" s="0" t="n">
-        <v>2.73</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -11062,7 +11053,7 @@
         <v>0.72</v>
       </c>
       <c r="Y126" s="0" t="n">
-        <v>0.43</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="127">
@@ -11145,7 +11136,7 @@
         <v>0.72</v>
       </c>
       <c r="Y127" s="0" t="n">
-        <v>0.77</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="128">
@@ -11228,7 +11219,7 @@
         <v>0.72</v>
       </c>
       <c r="Y128" s="0" t="n">
-        <v>3.17</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="129">
@@ -11311,7 +11302,7 @@
         <v>0.72</v>
       </c>
       <c r="Y129" s="0" t="n">
-        <v>1.52</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="130">
@@ -11394,7 +11385,7 @@
         <v>0.72</v>
       </c>
       <c r="Y130" s="0" t="n">
-        <v>0.41</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="131">
@@ -11477,7 +11468,7 @@
         <v>0.72</v>
       </c>
       <c r="Y131" s="0" t="n">
-        <v>1.21</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="132">
@@ -11560,7 +11551,7 @@
         <v>0.72</v>
       </c>
       <c r="Y132" s="0" t="n">
-        <v>-0.08</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="133">
@@ -11643,7 +11634,7 @@
         <v>0.72</v>
       </c>
       <c r="Y133" s="0" t="n">
-        <v>0.75</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="134">
@@ -11726,7 +11717,7 @@
         <v>0.72</v>
       </c>
       <c r="Y134" s="0" t="n">
-        <v>2.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="135">
@@ -11809,7 +11800,920 @@
         <v>0.72</v>
       </c>
       <c r="Y135" s="0" t="n">
-        <v>5.26</v>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>300084</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>海默科技</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>190141.98</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>221968.56</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>263691.69</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>180949</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q136" s="0" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T136" s="0" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="W136" s="0" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="X136" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y136" s="0" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>300401</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>花园生物</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>89370.41</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>182564.56</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>212439.42</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>122279.52</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q137" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S137" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="X137" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y137" s="0" t="n">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>300500</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>启迪设计</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>47843</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>81297.39999999999</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>99606.16</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>58905.32</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="O138" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q138" s="0" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="S138" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="T138" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="X138" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y138" s="0" t="n">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>300518</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>盛讯达</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>20629.84</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>22181.42</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>26749.4</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>14149.6</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N139" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O139" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P139" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q139" s="0" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S139" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T139" s="0" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="U139" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="V139" s="0" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="W139" s="0" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="X139" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y139" s="0" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>300616</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>尚品宅配</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>49096.4</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>76552.66</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>82245.99000000001</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>40742.43</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M140" s="0" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="N140" s="0" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="O140" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="P140" s="0" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q140" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="S140" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T140" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="U140" s="0" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="V140" s="0" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="W140" s="0" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="X140" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y140" s="0" t="n">
+        <v>-4.26</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>300779</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>惠城环保</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>24279.93</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>43503.5</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>45404.6</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>25963.24</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="N141" s="0" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="O141" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q141" s="0" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S141" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T141" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U141" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V141" s="0" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="W141" s="0" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="X141" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y141" s="0" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>300915</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>海融科技</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>4518</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>9006.5</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>13317.88</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>8099</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="N142" s="0" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="O142" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="P142" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q142" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S142" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T142" s="0" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="U142" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V142" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W142" s="0" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="X142" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y142" s="0" t="n">
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>301020</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>密封科技</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>6293.4</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>35602.95</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>50017.72</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>32928.6</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="N143" s="0" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="O143" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="P143" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q143" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S143" s="0" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="T143" s="0" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="U143" s="0" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="V143" s="0" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="W143" s="0" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="X143" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y143" s="0" t="n">
+        <v>-4.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>301038</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>深水规院</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>8593.68</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>19758.77</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>27902.38</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>17618.97</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="N144" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O144" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R144" s="0" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S144" s="0" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T144" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U144" s="0" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" s="0" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="X144" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y144" s="0" t="n">
+        <v>-3.17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>新特电气</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>144077.88</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>158367.48</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>204346.95</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>158788.95</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="N145" s="0" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="O145" s="0" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="Q145" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="S145" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="X145" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>300950</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>德固特</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>22805</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>34004.79</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>125956.69</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>80125.67999999999</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="O146" s="0" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q146" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="S146" s="0" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="T146" s="0" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="U146" s="0" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="W146" s="0" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="X146" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y146" s="0" t="n">
+        <v>-4.09</v>
       </c>
     </row>
   </sheetData>
@@ -11825,7 +12729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -11989,7 +12893,7 @@
         <v>2.41</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.25</v>
+        <v>1.43</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>190141.98</v>
@@ -12001,7 +12905,7 @@
         <v>263691.69</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>180949</v>
+        <v>329622.15</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>5.77</v>
@@ -12013,7 +12917,7 @@
         <v>8</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>5.49</v>
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>3.05</v>
@@ -12025,7 +12929,7 @@
         <v>3.53</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.78</v>
+        <v>6.19</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>-0.17</v>
@@ -12037,13 +12941,13 @@
         <v>-2.57</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-2.04</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>3.4</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -12054,79 +12958,79 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>300401</t>
+          <t>300250</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>花园生物</t>
+          <t>初灵信息</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3.27</v>
+        <v>4.3</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-1.26</v>
+        <v>-11.21</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>89370.41</v>
+        <v>552845.5600000001</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>182564.56</v>
+        <v>565557.12</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>212439.42</v>
+        <v>641049.25</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>122279.52</v>
+        <v>786563.72</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1.65</v>
+        <v>34.7</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3.37</v>
+        <v>35.49</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3.92</v>
+        <v>40.23</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2.26</v>
+        <v>49.36</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>5.53</v>
+        <v>4.3</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3.29</v>
+        <v>10.12</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.57</v>
+        <v>-2.79</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.47</v>
+        <v>-2.55</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.8</v>
+        <v>-5.68</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0</v>
+        <v>-3.87</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-2.14</v>
+        <v>-11.33</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>3.4</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="4">
@@ -12137,79 +13041,79 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>300500</t>
+          <t>300401</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>启迪设计</t>
+          <t>花园生物</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.82</v>
+        <v>2.58</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-1.78</v>
+        <v>-2.93</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>47843</v>
+        <v>89370.41</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>81297.39999999999</v>
+        <v>182564.56</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>99606.16</v>
+        <v>212439.42</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>58905.32</v>
+        <v>132311.16</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2.91</v>
+        <v>1.65</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>4.95</v>
+        <v>3.37</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>6.06</v>
+        <v>3.92</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3.58</v>
+        <v>2.44</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>2.97</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>5.55</v>
+        <v>5.53</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>7.09</v>
+        <v>3.29</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.12</v>
+        <v>-0.47</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>-0.77</v>
+        <v>0.8</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>-1.19</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-2.12</v>
+        <v>-3.76</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>-0.47</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -12220,79 +13124,79 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>300518</t>
+          <t>300500</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>盛讯达</t>
+          <t>启迪设计</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.02</v>
+        <v>4.08</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4.13</v>
+        <v>1.82</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-0.11</v>
+        <v>-4.6</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>20629.84</v>
+        <v>47843</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>22181.42</v>
+        <v>81297.39999999999</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>26749.4</v>
+        <v>99606.16</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>14149.6</v>
+        <v>62016.32</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1.51</v>
+        <v>2.91</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.62</v>
+        <v>4.95</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1.96</v>
+        <v>6.06</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>1.04</v>
+        <v>3.77</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>3.54</v>
+        <v>5.55</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>5.48</v>
+        <v>7.09</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0.99</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>-1.19</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>-0.76</v>
-      </c>
       <c r="W5" s="0" t="n">
-        <v>-0.92</v>
+        <v>-5.16</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-0.42</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="6">
@@ -12303,79 +13207,79 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>300616</t>
+          <t>300518</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>尚品宅配</t>
+          <t>盛讯达</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.67</v>
+        <v>0.47</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4.76</v>
+        <v>3.02</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>20629.84</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>22181.42</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>26749.4</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>23397.87</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>3.72</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>49096.4</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>76552.66</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>82245.99000000001</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>40742.43</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.4</v>
-      </c>
       <c r="T6" s="0" t="n">
-        <v>0.48</v>
+        <v>-1.19</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.87</v>
+        <v>-0.64</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>-1.45</v>
+        <v>-0.76</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-2.27</v>
+        <v>-1.04</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>-0.78</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="7">
@@ -12386,79 +13290,79 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>300779</t>
+          <t>300616</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>惠城环保</t>
+          <t>尚品宅配</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.74</v>
+        <v>1.67</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6.93</v>
+        <v>4.76</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5.84</v>
+        <v>3.72</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-2.35</v>
+        <v>-4.26</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>24279.93</v>
+        <v>49096.4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>43503.5</v>
+        <v>76552.66</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>45404.6</v>
+        <v>82245.99000000001</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>25963.24</v>
+        <v>41698.6</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>2.7</v>
+        <v>3.77</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>4.84</v>
+        <v>5.88</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>5.05</v>
+        <v>6.32</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>2.91</v>
+        <v>4.31</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>9.359999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>6.84</v>
+        <v>5.7</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.54</v>
+        <v>0.97</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.61</v>
+        <v>-0.87</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-2.03</v>
+        <v>-1.45</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-2.95</v>
+        <v>-5.19</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>3.79</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="8">
@@ -12469,79 +13373,79 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>300915</t>
+          <t>300682</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>海融科技</t>
+          <t>朗新科技</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.04</v>
+        <v>5.06</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.62</v>
+        <v>0.55</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-1.89</v>
+        <v>-5.28</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4518</v>
+        <v>94836.7</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>9006.5</v>
+        <v>141818.62</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>13317.88</v>
+        <v>195244.64</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>8099</v>
+        <v>155790.32</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.82</v>
+        <v>0.92</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3.63</v>
+        <v>1.38</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>5.37</v>
+        <v>1.9</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3.27</v>
+        <v>1.52</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>1.42</v>
+        <v>3.19</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>2.94</v>
+        <v>5.49</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>3.28</v>
+        <v>5.88</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0.04</v>
+        <v>-1.51</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>-0.85</v>
+        <v>-0.41</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0.04</v>
+        <v>-0.65</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>0.24</v>
+        <v>-0.52</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-2.49</v>
+        <v>-6.03</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>2.26</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="9">
@@ -12552,79 +13456,79 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>301020</t>
+          <t>300779</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>密封科技</t>
+          <t>惠城环保</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>5.24</v>
+        <v>6.93</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7.04</v>
+        <v>5.84</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-2.9</v>
+        <v>-0.46</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>6293.4</v>
+        <v>24279.93</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>35602.95</v>
+        <v>43503.5</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>50017.72</v>
+        <v>45404.6</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>32928.6</v>
+        <v>47992.37</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.86</v>
+        <v>2.7</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4.88</v>
+        <v>4.84</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>6.86</v>
+        <v>5.05</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>4.52</v>
+        <v>5.34</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1.2</v>
+        <v>2.91</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>9.9</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>10.2</v>
+        <v>6.84</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>-0.14</v>
+        <v>5.17</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>-0.68</v>
+        <v>0.05</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>-0.93</v>
+        <v>0.61</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>-2.61</v>
+        <v>-2.03</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-3.36</v>
+        <v>-1.62</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>5.04</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="10">
@@ -12635,79 +13539,79 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>301038</t>
+          <t>300795</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>深水规院</t>
+          <t>米奥会展</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.63</v>
+        <v>3.41</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2.44</v>
+        <v>6.8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.98</v>
+        <v>2.04</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.09</v>
+        <v>-6.33</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>8593.68</v>
+        <v>10181</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19758.77</v>
+        <v>13677.83</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>27902.38</v>
+        <v>13940.64</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>17618.97</v>
+        <v>17969.5</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>4.61</v>
+        <v>2.74</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1.7</v>
+        <v>4.76</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>3</v>
+        <v>8.35</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3.66</v>
+        <v>5.09</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1.45</v>
+        <v>0.48</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>0.06</v>
+        <v>-1.61</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-0.25</v>
+        <v>-2.41</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-0.91</v>
+        <v>-6.81</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>0.8</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="11">
@@ -12718,79 +13622,79 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>301120</t>
+          <t>300915</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>新特电气</t>
+          <t>海融科技</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5.83</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3.02</v>
+        <v>2.04</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7.64</v>
+        <v>2.62</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-0.91</v>
+        <v>-1.95</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>144077.88</v>
+        <v>4518</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>158367.48</v>
+        <v>9006.5</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>204346.95</v>
+        <v>13317.88</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>158788.96</v>
+        <v>11553.16</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>25.46</v>
+        <v>1.82</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>27.98</v>
+        <v>3.63</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>36.11</v>
+        <v>5.37</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>28.06</v>
+        <v>4.66</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>7.73</v>
+        <v>1.42</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>10.15</v>
+        <v>2.94</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>9.26</v>
+        <v>3.28</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0.39</v>
+        <v>3.26</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>1.52</v>
+        <v>-0.85</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>-2.76</v>
+        <v>0.04</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>-3.14</v>
+        <v>0.24</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>-4.38</v>
+        <v>-2.36</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>14.44</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
@@ -12801,79 +13705,328 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
+          <t>301020</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>密封科技</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-4.03</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6293.4</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>35602.95</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>50017.72</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>24067.09</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>301038</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>深水规院</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>8593.68</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>19758.77</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>27902.38</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>18766.44</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>新特电气</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>144077.88</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>158367.48</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>204346.95</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>150811.92</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
           <t>300950</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>德固特</t>
         </is>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>6.43</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="G15" s="0" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>22805</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>34004.79</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>125956.69</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>80125.67999999999</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="K15" s="0" t="n">
+        <v>83481.56</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>5.67</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>20.99</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="O15" s="0" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="P15" s="0" t="n">
         <v>1.14</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="T12" s="0" t="n">
+      <c r="S15" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="T15" s="0" t="n">
         <v>-0.83</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>-0.73</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>-0.66</v>
       </c>
-      <c r="W12" s="0" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>9.050000000000001</v>
+      <c r="W15" s="0" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>
@@ -12888,10 +14041,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -13107,7 +14260,7 @@
         <v>0.9</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>1.11</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -13191,7 +14344,7 @@
         <v>0.9</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.27</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -13275,7 +14428,7 @@
         <v>0.9</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -13359,7 +14512,7 @@
         <v>0.9</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>9.99</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="6">
@@ -13443,7 +14596,7 @@
         <v>0.9</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>0.91</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="7">
@@ -13527,7 +14680,7 @@
         <v>0.9</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -13611,7 +14764,7 @@
         <v>0.9</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>1.19</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
@@ -13695,7 +14848,7 @@
         <v>0.9</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>4.5</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="10">
@@ -13779,7 +14932,7 @@
         <v>0.9</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>-0.25</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="11">
@@ -13863,7 +15016,7 @@
         <v>0.9</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>0.65</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="12">
@@ -13947,7 +15100,7 @@
         <v>0.9</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="13">
@@ -14031,7 +15184,7 @@
         <v>0.9</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>-0.24</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="14">
@@ -14115,7 +15268,7 @@
         <v>0.9</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>0.54</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="15">
@@ -14199,7 +15352,7 @@
         <v>0.9</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>0.51</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="16">
@@ -14283,7 +15436,7 @@
         <v>0.9</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="17">
@@ -14367,7 +15520,7 @@
         <v>0.9</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="18">
@@ -14451,7 +15604,7 @@
         <v>0.9</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>1.74</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="19">
@@ -14535,7 +15688,7 @@
         <v>0.9</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="20">
@@ -14619,7 +15772,7 @@
         <v>0.9</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>4.64</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="21">
@@ -14703,7 +15856,7 @@
         <v>0.9</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -14787,7 +15940,7 @@
         <v>0.9</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>0.29</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="23">
@@ -14871,7 +16024,7 @@
         <v>0.9</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -14955,7 +16108,7 @@
         <v>0.9</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="25">
@@ -15039,7 +16192,7 @@
         <v>0.9</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>2.73</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="26">
@@ -15123,7 +16276,7 @@
         <v>0.02</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>-0.23</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="27">
@@ -15207,7 +16360,7 @@
         <v>0.02</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -15291,7 +16444,7 @@
         <v>0.02</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>-0.51</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="29">
@@ -15375,7 +16528,7 @@
         <v>0.02</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>-0.29</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="30">
@@ -15459,7 +16612,7 @@
         <v>0.02</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>0.78</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="31">
@@ -15543,7 +16696,7 @@
         <v>0.02</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>-0.23</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="32">
@@ -15627,7 +16780,7 @@
         <v>0.02</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>0</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="33">
@@ -15711,7 +16864,7 @@
         <v>0.02</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>-0.25</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="34">
@@ -15795,7 +16948,7 @@
         <v>0.02</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>3.24</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="35">
@@ -15879,7 +17032,7 @@
         <v>0.02</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>0.29</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="36">
@@ -15963,7 +17116,7 @@
         <v>0.02</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>0.76</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="37">
@@ -16047,7 +17200,7 @@
         <v>0.02</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>4.67</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="38">
@@ -16131,7 +17284,7 @@
         <v>0.02</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>5.75</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="39">
@@ -16215,7 +17368,7 @@
         <v>0.02</v>
       </c>
       <c r="Y39" s="0" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="40">
@@ -16299,7 +17452,7 @@
         <v>0.02</v>
       </c>
       <c r="Y40" s="0" t="n">
-        <v>-0.14</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="41">
@@ -16383,7 +17536,7 @@
         <v>0.02</v>
       </c>
       <c r="Y41" s="0" t="n">
-        <v>3.93</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="42">
@@ -16467,7 +17620,7 @@
         <v>0.02</v>
       </c>
       <c r="Y42" s="0" t="n">
-        <v>1.53</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="43">
@@ -16551,7 +17704,7 @@
         <v>0.02</v>
       </c>
       <c r="Y43" s="0" t="n">
-        <v>-0.52</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="44">
@@ -16635,7 +17788,7 @@
         <v>0.02</v>
       </c>
       <c r="Y44" s="0" t="n">
-        <v>0.84</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="45">
@@ -16719,7 +17872,7 @@
         <v>0.02</v>
       </c>
       <c r="Y45" s="0" t="n">
-        <v>1.62</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46">
@@ -16803,7 +17956,7 @@
         <v>0.02</v>
       </c>
       <c r="Y46" s="0" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="47">
@@ -16887,7 +18040,7 @@
         <v>0.02</v>
       </c>
       <c r="Y47" s="0" t="n">
-        <v>-0.32</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="48">
@@ -16971,7 +18124,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y48" s="0" t="n">
-        <v>1.59</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="49">
@@ -17055,7 +18208,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y49" s="0" t="n">
-        <v>6.93</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="50">
@@ -17139,7 +18292,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y50" s="0" t="n">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51">
@@ -17223,7 +18376,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y51" s="0" t="n">
-        <v>0.71</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="52">
@@ -17307,7 +18460,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y52" s="0" t="n">
-        <v>0.91</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="53">
@@ -17391,7 +18544,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y53" s="0" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="54">
@@ -17475,7 +18628,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y54" s="0" t="n">
-        <v>1.32</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="55">
@@ -17559,7 +18712,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y55" s="0" t="n">
-        <v>0.25</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="56">
@@ -17643,7 +18796,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y56" s="0" t="n">
-        <v>0.16</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="57">
@@ -17727,7 +18880,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y57" s="0" t="n">
-        <v>3.25</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="58">
@@ -17811,7 +18964,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y58" s="0" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="59">
@@ -17895,7 +19048,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y59" s="0" t="n">
-        <v>5.54</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="60">
@@ -17979,7 +19132,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y60" s="0" t="n">
-        <v>0.64</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="61">
@@ -18063,7 +19216,7 @@
         <v>-0.68</v>
       </c>
       <c r="Y61" s="0" t="n">
-        <v>0.87</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="62">
@@ -18147,7 +19300,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y62" s="0" t="n">
-        <v>0</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="63">
@@ -18231,7 +19384,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y63" s="0" t="n">
-        <v>0.18</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="64">
@@ -18315,7 +19468,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y64" s="0" t="n">
-        <v>3.57</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="65">
@@ -18399,7 +19552,7 @@
         <v>-0.76</v>
       </c>
       <c r="Y65" s="0" t="n">
-        <v>0.8</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="66">
@@ -18567,7 +19720,7 @@
         <v>0.29</v>
       </c>
       <c r="Y67" s="0" t="n">
-        <v>2.33</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="68">
@@ -18651,7 +19804,7 @@
         <v>0.29</v>
       </c>
       <c r="Y68" s="0" t="n">
-        <v>6.63</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="69">
@@ -18735,7 +19888,7 @@
         <v>0.29</v>
       </c>
       <c r="Y69" s="0" t="n">
-        <v>0.82</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="70">
@@ -18819,7 +19972,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y70" s="0" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="71">
@@ -18903,7 +20056,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y71" s="0" t="n">
-        <v>5.23</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -18987,7 +20140,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y72" s="0" t="n">
-        <v>0.97</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="73">
@@ -19071,7 +20224,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y73" s="0" t="n">
-        <v>1.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74">
@@ -19155,7 +20308,7 @@
         <v>-0.49</v>
       </c>
       <c r="Y74" s="0" t="n">
-        <v>-5.39</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="75">
@@ -19238,7 +20391,7 @@
         <v>1.18</v>
       </c>
       <c r="Y75" s="0" t="n">
-        <v>1.76</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="76">
@@ -19321,7 +20474,7 @@
         <v>1.18</v>
       </c>
       <c r="Y76" s="0" t="n">
-        <v>0.23</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="77">
@@ -19404,7 +20557,7 @@
         <v>1.18</v>
       </c>
       <c r="Y77" s="0" t="n">
-        <v>0.92</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="78">
@@ -19487,7 +20640,7 @@
         <v>1.18</v>
       </c>
       <c r="Y78" s="0" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -19570,7 +20723,7 @@
         <v>1.18</v>
       </c>
       <c r="Y79" s="0" t="n">
-        <v>0.67</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="80">
@@ -19653,7 +20806,7 @@
         <v>1.18</v>
       </c>
       <c r="Y80" s="0" t="n">
-        <v>1.97</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="81">
@@ -19736,7 +20889,7 @@
         <v>1.18</v>
       </c>
       <c r="Y81" s="0" t="n">
-        <v>0.24</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="82">
@@ -19819,7 +20972,7 @@
         <v>1.18</v>
       </c>
       <c r="Y82" s="0" t="n">
-        <v>5.06</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="83">
@@ -19985,7 +21138,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y84" s="0" t="n">
-        <v>1.56</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -20068,7 +21221,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y85" s="0" t="n">
-        <v>-0.18</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="86">
@@ -20151,7 +21304,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y86" s="0" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="87">
@@ -20234,7 +21387,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y87" s="0" t="n">
-        <v>4.85</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="88">
@@ -20317,7 +21470,7 @@
         <v>-0.3</v>
       </c>
       <c r="Y88" s="0" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="89">
@@ -20400,505 +21553,505 @@
         <v>-0.3</v>
       </c>
       <c r="Y89" s="0" t="n">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>000157</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>深振业A</t>
+          <t>中联重科</t>
         </is>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.92</v>
+        <v>1.75</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>2.19</v>
+        <v>3.94</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>4.83</v>
+        <v>6.44</v>
       </c>
       <c r="G90" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>313720.31</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>1410597.12</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>1947621.25</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <v>919660.0600000001</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W90" s="0" t="n">
         <v>-1.71</v>
       </c>
-      <c r="H90" s="0" t="n">
-        <v>457298.25</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>534171.38</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>969340.5</v>
-      </c>
-      <c r="K90" s="0" t="n">
-        <v>659528.8100000001</v>
-      </c>
-      <c r="L90" s="0" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="M90" s="0" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="N90" s="0" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="O90" s="0" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P90" s="0" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Q90" s="0" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R90" s="0" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="S90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" s="0" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="U90" s="0" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="V90" s="0" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="W90" s="0" t="n">
-        <v>-4.27</v>
-      </c>
       <c r="X90" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y90" s="0" t="n">
-        <v>1.56</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>000428</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>华天酒店</t>
+          <t>广州浪奇</t>
         </is>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>3.5</v>
+        <v>7.34</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.53</v>
+        <v>-0.53</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>221428.55</v>
+        <v>92583.98</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>325743.38</v>
+        <v>216091.91</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>677770.38</v>
+        <v>637155.6899999999</v>
       </c>
       <c r="K91" s="0" t="n">
-        <v>567037</v>
+        <v>328501.31</v>
       </c>
       <c r="L91" s="0" t="n">
-        <v>2.17</v>
+        <v>0.59</v>
       </c>
       <c r="M91" s="0" t="n">
-        <v>3.2</v>
+        <v>1.37</v>
       </c>
       <c r="N91" s="0" t="n">
-        <v>6.65</v>
+        <v>4.05</v>
       </c>
       <c r="O91" s="0" t="n">
-        <v>5.57</v>
+        <v>2.09</v>
       </c>
       <c r="P91" s="0" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q91" s="0" t="n">
-        <v>2.26</v>
+        <v>3.76</v>
       </c>
       <c r="R91" s="0" t="n">
-        <v>3.87</v>
+        <v>9.6</v>
       </c>
       <c r="S91" s="0" t="n">
-        <v>0.71</v>
+        <v>-0.53</v>
       </c>
       <c r="T91" s="0" t="n">
-        <v>-0.76</v>
+        <v>-0.58</v>
       </c>
       <c r="U91" s="0" t="n">
-        <v>-0.19</v>
+        <v>-0.29</v>
       </c>
       <c r="V91" s="0" t="n">
-        <v>-0.18</v>
+        <v>0.28</v>
       </c>
       <c r="W91" s="0" t="n">
-        <v>-1.6</v>
+        <v>-2.63</v>
       </c>
       <c r="X91" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y91" s="0" t="n">
-        <v>-0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>002930</t>
+          <t>000610</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>宏川智慧</t>
+          <t>西安旅游</t>
         </is>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1.16</v>
+        <v>0.28</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>4.74</v>
+        <v>3.22</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>2.01</v>
+        <v>6.24</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.09</v>
+        <v>-0.38</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>19284.34</v>
+        <v>136109.38</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>33423.22</v>
+        <v>280849.84</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>34318.6</v>
+        <v>433287.44</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>21195.87</v>
+        <v>380927</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.45</v>
+        <v>5.78</v>
       </c>
       <c r="M92" s="0" t="n">
-        <v>0.78</v>
+        <v>11.93</v>
       </c>
       <c r="N92" s="0" t="n">
-        <v>0.8</v>
+        <v>18.4</v>
       </c>
       <c r="O92" s="0" t="n">
-        <v>0.49</v>
+        <v>16.18</v>
       </c>
       <c r="P92" s="0" t="n">
-        <v>1.84</v>
+        <v>0.9</v>
       </c>
       <c r="Q92" s="0" t="n">
-        <v>5.41</v>
+        <v>4.79</v>
       </c>
       <c r="R92" s="0" t="n">
-        <v>2.42</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="S92" s="0" t="n">
-        <v>0.27</v>
+        <v>2.56</v>
       </c>
       <c r="T92" s="0" t="n">
-        <v>-0.29</v>
+        <v>-2.4</v>
       </c>
       <c r="U92" s="0" t="n">
-        <v>-0.77</v>
+        <v>-0.75</v>
       </c>
       <c r="V92" s="0" t="n">
-        <v>-1.88</v>
+        <v>-0.46</v>
       </c>
       <c r="W92" s="0" t="n">
-        <v>-1.35</v>
+        <v>-3.19</v>
       </c>
       <c r="X92" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y92" s="0" t="n">
-        <v>2.56</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>600966</t>
+          <t>000799</t>
         </is>
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>博汇纸业</t>
+          <t>酒鬼酒</t>
         </is>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.26</v>
+        <v>2.52</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>2.92</v>
+        <v>2.18</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>4.2</v>
+        <v>5.63</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-2.25</v>
+        <v>1.65</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>91393.92999999999</v>
+        <v>71510.81</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>164466.38</v>
+        <v>110325.73</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>233805.69</v>
+        <v>173887.69</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>149466.94</v>
+        <v>119533.22</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.68</v>
+        <v>2.2</v>
       </c>
       <c r="M93" s="0" t="n">
-        <v>1.23</v>
+        <v>3.4</v>
       </c>
       <c r="N93" s="0" t="n">
-        <v>1.75</v>
+        <v>5.35</v>
       </c>
       <c r="O93" s="0" t="n">
-        <v>1.12</v>
+        <v>3.68</v>
       </c>
       <c r="P93" s="0" t="n">
-        <v>1.41</v>
+        <v>4.27</v>
       </c>
       <c r="Q93" s="0" t="n">
-        <v>4.57</v>
+        <v>3.61</v>
       </c>
       <c r="R93" s="0" t="n">
-        <v>7.04</v>
+        <v>7.61</v>
       </c>
       <c r="S93" s="0" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="T93" s="0" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="U93" s="0" t="n">
         <v>-0.63</v>
       </c>
-      <c r="U93" s="0" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="V93" s="0" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="W93" s="0" t="n">
-        <v>-2.61</v>
+        <v>-0.96</v>
       </c>
       <c r="X93" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y93" s="0" t="n">
-        <v>4.85</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>600989</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>宝丰能源</t>
+          <t>东莞控股</t>
         </is>
       </c>
       <c r="D94" s="0" t="n">
-        <v>2.13</v>
+        <v>0.85</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>3.75</v>
+        <v>4.13</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>2.5</v>
+        <v>5.08</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.61</v>
+        <v>-1.84</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>240006.97</v>
+        <v>25018.74</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>369245.22</v>
+        <v>159069.88</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>571080.25</v>
+        <v>223865.08</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>465876.03</v>
+        <v>129705.59</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="M94" s="0" t="n">
-        <v>0.5</v>
+        <v>1.53</v>
       </c>
       <c r="N94" s="0" t="n">
-        <v>0.78</v>
+        <v>2.15</v>
       </c>
       <c r="O94" s="0" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="P94" s="0" t="n">
-        <v>3.46</v>
+        <v>0.85</v>
       </c>
       <c r="Q94" s="0" t="n">
-        <v>4.18</v>
+        <v>6.24</v>
       </c>
       <c r="R94" s="0" t="n">
-        <v>5.21</v>
+        <v>7.72</v>
       </c>
       <c r="S94" s="0" t="n">
-        <v>1.69</v>
+        <v>0.77</v>
       </c>
       <c r="T94" s="0" t="n">
-        <v>-0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="U94" s="0" t="n">
-        <v>-0.14</v>
+        <v>-0.32</v>
       </c>
       <c r="V94" s="0" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.22</v>
       </c>
       <c r="W94" s="0" t="n">
-        <v>-1.69</v>
+        <v>-2.71</v>
       </c>
       <c r="X94" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y94" s="0" t="n">
-        <v>3.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>600996</t>
+          <t>000860</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>贵广网络</t>
+          <t>顺鑫农业</t>
         </is>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.28</v>
+        <v>2.67</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>3.38</v>
+        <v>2.64</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>4.42</v>
+        <v>2.67</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-1.24</v>
+        <v>-1.7</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>296540.47</v>
+        <v>154823.59</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>382077.5</v>
+        <v>162058.73</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>480512.84</v>
+        <v>171689.05</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>305656.38</v>
+        <v>125155.7</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>2.46</v>
+        <v>2.09</v>
       </c>
       <c r="M95" s="0" t="n">
-        <v>3.17</v>
+        <v>2.18</v>
       </c>
       <c r="N95" s="0" t="n">
-        <v>3.99</v>
+        <v>2.31</v>
       </c>
       <c r="O95" s="0" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="P95" s="0" t="n">
-        <v>2.11</v>
+        <v>3.32</v>
       </c>
       <c r="Q95" s="0" t="n">
-        <v>4.43</v>
+        <v>3.03</v>
       </c>
       <c r="R95" s="0" t="n">
-        <v>5.31</v>
+        <v>3.57</v>
       </c>
       <c r="S95" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T95" s="0" t="n">
-        <v>-2.19</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U95" s="0" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.39</v>
       </c>
       <c r="V95" s="0" t="n">
-        <v>-0.61</v>
+        <v>-0.55</v>
       </c>
       <c r="W95" s="0" t="n">
-        <v>-2.87</v>
+        <v>-2.14</v>
       </c>
       <c r="X95" s="0" t="n">
-        <v>-0.3</v>
+        <v>0.72</v>
       </c>
       <c r="Y95" s="0" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="96">
@@ -20909,79 +22062,79 @@
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>000157</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>华铁股份</t>
         </is>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1.75</v>
+        <v>2.84</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>3.94</v>
+        <v>5.03</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>6.44</v>
+        <v>5.74</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.78</v>
+        <v>-2.04</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>313720.31</v>
+        <v>224546.91</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>1410597.12</v>
+        <v>819914.5</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>1947621.25</v>
+        <v>915980.9399999999</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>919660.0600000001</v>
+        <v>457946.62</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.44</v>
+        <v>1.41</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>2</v>
+        <v>5.14</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>2.76</v>
+        <v>5.74</v>
       </c>
       <c r="O96" s="0" t="n">
-        <v>1.3</v>
+        <v>2.87</v>
       </c>
       <c r="P96" s="0" t="n">
-        <v>1.92</v>
+        <v>3.1</v>
       </c>
       <c r="Q96" s="0" t="n">
-        <v>4.63</v>
+        <v>7.79</v>
       </c>
       <c r="R96" s="0" t="n">
-        <v>8.58</v>
+        <v>7.66</v>
       </c>
       <c r="S96" s="0" t="n">
-        <v>1.09</v>
+        <v>-0.45</v>
       </c>
       <c r="T96" s="0" t="n">
-        <v>-0.17</v>
+        <v>0.26</v>
       </c>
       <c r="U96" s="0" t="n">
-        <v>-0.17</v>
+        <v>0.25</v>
       </c>
       <c r="V96" s="0" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="W96" s="0" t="n">
-        <v>-1.71</v>
+        <v>-2.94</v>
       </c>
       <c r="X96" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y96" s="0" t="n">
-        <v>1.08</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="97">
@@ -20992,79 +22145,79 @@
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>002205</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>广州浪奇</t>
+          <t>国统股份</t>
         </is>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1.47</v>
+        <v>0.18</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>2.31</v>
+        <v>3.12</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>7.34</v>
+        <v>2.59</v>
       </c>
       <c r="G97" s="0" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>48454.2</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>90049.22</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>122380.6</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>77553.05</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S97" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="T97" s="0" t="n">
         <v>-0.53</v>
       </c>
-      <c r="H97" s="0" t="n">
-        <v>92583.98</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>216091.91</v>
-      </c>
-      <c r="J97" s="0" t="n">
-        <v>637155.6899999999</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <v>328501.31</v>
-      </c>
-      <c r="L97" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M97" s="0" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N97" s="0" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O97" s="0" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P97" s="0" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q97" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="R97" s="0" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="S97" s="0" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="T97" s="0" t="n">
-        <v>-0.58</v>
-      </c>
       <c r="U97" s="0" t="n">
-        <v>-0.29</v>
+        <v>-0.09</v>
       </c>
       <c r="V97" s="0" t="n">
-        <v>0.28</v>
+        <v>-1.21</v>
       </c>
       <c r="W97" s="0" t="n">
-        <v>-2.63</v>
+        <v>-1.52</v>
       </c>
       <c r="X97" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y97" s="0" t="n">
-        <v>2.12</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="98">
@@ -21075,79 +22228,79 @@
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>000610</t>
+          <t>002251</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>西安旅游</t>
+          <t>步步高</t>
         </is>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.28</v>
+        <v>1.26</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>3.22</v>
+        <v>2.49</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>6.24</v>
+        <v>3.34</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.38</v>
+        <v>-2.06</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>136109.38</v>
+        <v>405366.41</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>280849.84</v>
+        <v>793250</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>433287.44</v>
+        <v>842241.4399999999</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>380927</v>
+        <v>573269.9399999999</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>5.78</v>
+        <v>4.69</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>11.93</v>
+        <v>9.18</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>18.4</v>
+        <v>9.75</v>
       </c>
       <c r="O98" s="0" t="n">
-        <v>16.18</v>
+        <v>6.64</v>
       </c>
       <c r="P98" s="0" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="Q98" s="0" t="n">
-        <v>4.79</v>
+        <v>6.85</v>
       </c>
       <c r="R98" s="0" t="n">
-        <v>8.359999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="S98" s="0" t="n">
-        <v>2.56</v>
+        <v>-0.15</v>
       </c>
       <c r="T98" s="0" t="n">
-        <v>-2.4</v>
+        <v>-1.58</v>
       </c>
       <c r="U98" s="0" t="n">
-        <v>-0.75</v>
+        <v>-0.62</v>
       </c>
       <c r="V98" s="0" t="n">
-        <v>-0.46</v>
+        <v>-0.91</v>
       </c>
       <c r="W98" s="0" t="n">
-        <v>-3.19</v>
+        <v>-2.79</v>
       </c>
       <c r="X98" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y98" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -21158,79 +22311,79 @@
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>000799</t>
+          <t>002372</t>
         </is>
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>酒鬼酒</t>
+          <t>伟星新材</t>
         </is>
       </c>
       <c r="D99" s="0" t="n">
-        <v>2.52</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>2.18</v>
+        <v>3.19</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>5.63</v>
+        <v>5.96</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>71510.81</v>
+        <v>33984.33</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>110325.73</v>
+        <v>69024.96000000001</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>173887.69</v>
+        <v>97651.24000000001</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>119533.22</v>
+        <v>95326.88</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>2.2</v>
+        <v>0.23</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>3.4</v>
+        <v>0.47</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>5.35</v>
+        <v>0.67</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>3.68</v>
+        <v>0.65</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>4.27</v>
+        <v>1.37</v>
       </c>
       <c r="Q99" s="0" t="n">
-        <v>3.61</v>
+        <v>3.92</v>
       </c>
       <c r="R99" s="0" t="n">
-        <v>7.61</v>
+        <v>6.4</v>
       </c>
       <c r="S99" s="0" t="n">
-        <v>3.42</v>
+        <v>2.29</v>
       </c>
       <c r="T99" s="0" t="n">
-        <v>-0.58</v>
+        <v>-0.97</v>
       </c>
       <c r="U99" s="0" t="n">
-        <v>-0.63</v>
+        <v>-0.55</v>
       </c>
       <c r="V99" s="0" t="n">
-        <v>0.29</v>
+        <v>-0.88</v>
       </c>
       <c r="W99" s="0" t="n">
-        <v>-0.96</v>
+        <v>-2.29</v>
       </c>
       <c r="X99" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y99" s="0" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="100">
@@ -21241,79 +22394,79 @@
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>002695</t>
         </is>
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>东莞控股</t>
+          <t>煌上煌</t>
         </is>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.85</v>
+        <v>1.71</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>4.13</v>
+        <v>2.72</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>5.08</v>
+        <v>3.82</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-1.84</v>
+        <v>0.53</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>25018.74</v>
+        <v>46334</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>159069.88</v>
+        <v>106263.02</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>223865.08</v>
+        <v>161229.3</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>129705.59</v>
+        <v>107065.44</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="M100" s="0" t="n">
-        <v>1.53</v>
+        <v>2.29</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>2.15</v>
+        <v>3.47</v>
       </c>
       <c r="O100" s="0" t="n">
-        <v>1.25</v>
+        <v>2.31</v>
       </c>
       <c r="P100" s="0" t="n">
-        <v>0.85</v>
+        <v>1.71</v>
       </c>
       <c r="Q100" s="0" t="n">
-        <v>6.24</v>
+        <v>2.88</v>
       </c>
       <c r="R100" s="0" t="n">
-        <v>7.72</v>
+        <v>5.76</v>
       </c>
       <c r="S100" s="0" t="n">
-        <v>0.77</v>
+        <v>2.1</v>
       </c>
       <c r="T100" s="0" t="n">
-        <v>-0.11</v>
+        <v>-0.49</v>
       </c>
       <c r="U100" s="0" t="n">
-        <v>-0.32</v>
+        <v>-0.4</v>
       </c>
       <c r="V100" s="0" t="n">
-        <v>-1.22</v>
+        <v>0.23</v>
       </c>
       <c r="W100" s="0" t="n">
-        <v>-2.71</v>
+        <v>-0.3</v>
       </c>
       <c r="X100" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y100" s="0" t="n">
-        <v>1.77</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="101">
@@ -21324,79 +22477,79 @@
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>000860</t>
+          <t>002732</t>
         </is>
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>顺鑫农业</t>
+          <t>燕塘乳业</t>
         </is>
       </c>
       <c r="D101" s="0" t="n">
-        <v>2.67</v>
+        <v>0.52</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>2.67</v>
+        <v>4.71</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>-1.7</v>
+        <v>-0.53</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>154823.59</v>
+        <v>15235</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>162058.73</v>
+        <v>34403.38</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>171689.05</v>
+        <v>71468.39999999999</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>125155.7</v>
+        <v>46595.95</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>2.09</v>
+        <v>0.98</v>
       </c>
       <c r="M101" s="0" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N101" s="0" t="n">
-        <v>2.31</v>
+        <v>4.58</v>
       </c>
       <c r="O101" s="0" t="n">
-        <v>1.69</v>
+        <v>2.99</v>
       </c>
       <c r="P101" s="0" t="n">
-        <v>3.32</v>
+        <v>0.88</v>
       </c>
       <c r="Q101" s="0" t="n">
-        <v>3.03</v>
+        <v>2.52</v>
       </c>
       <c r="R101" s="0" t="n">
-        <v>3.57</v>
+        <v>4.71</v>
       </c>
       <c r="S101" s="0" t="n">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="T101" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.51</v>
       </c>
       <c r="U101" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.21</v>
       </c>
       <c r="V101" s="0" t="n">
-        <v>-0.55</v>
+        <v>0.2</v>
       </c>
       <c r="W101" s="0" t="n">
-        <v>-2.14</v>
+        <v>-1.44</v>
       </c>
       <c r="X101" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y101" s="0" t="n">
-        <v>1.8</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="102">
@@ -21407,79 +22560,79 @@
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>002852</t>
         </is>
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>华铁股份</t>
+          <t>道道全</t>
         </is>
       </c>
       <c r="D102" s="0" t="n">
-        <v>2.84</v>
+        <v>1.66</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>5.03</v>
+        <v>2.04</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>5.74</v>
+        <v>2.96</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>-2.04</v>
+        <v>-1.79</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>224546.91</v>
+        <v>36222</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>819914.5</v>
+        <v>71594.59</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>915980.9399999999</v>
+        <v>99975.28999999999</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>457946.62</v>
+        <v>74328.89999999999</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="M102" s="0" t="n">
-        <v>5.14</v>
+        <v>2.45</v>
       </c>
       <c r="N102" s="0" t="n">
-        <v>5.74</v>
+        <v>3.42</v>
       </c>
       <c r="O102" s="0" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="P102" s="0" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="Q102" s="0" t="n">
-        <v>7.79</v>
+        <v>3.18</v>
       </c>
       <c r="R102" s="0" t="n">
-        <v>7.66</v>
+        <v>3.04</v>
       </c>
       <c r="S102" s="0" t="n">
-        <v>-0.45</v>
+        <v>1.63</v>
       </c>
       <c r="T102" s="0" t="n">
-        <v>0.26</v>
+        <v>-0.5</v>
       </c>
       <c r="U102" s="0" t="n">
-        <v>0.25</v>
+        <v>-0.65</v>
       </c>
       <c r="V102" s="0" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="W102" s="0" t="n">
-        <v>-2.94</v>
+        <v>-2.48</v>
       </c>
       <c r="X102" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y102" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="103">
@@ -21490,79 +22643,79 @@
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>002205</t>
+          <t>002859</t>
         </is>
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>国统股份</t>
+          <t>洁美科技</t>
         </is>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.18</v>
+        <v>2.62</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>2.59</v>
+        <v>3.93</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>-1.01</v>
+        <v>-1.51</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>48454.2</v>
+        <v>28831.52</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>90049.22</v>
+        <v>49227.07</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>122380.6</v>
+        <v>70725.48</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>77553.05</v>
+        <v>23753.82</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>2.61</v>
+        <v>0.72</v>
       </c>
       <c r="M103" s="0" t="n">
-        <v>4.85</v>
+        <v>1.23</v>
       </c>
       <c r="N103" s="0" t="n">
-        <v>6.59</v>
+        <v>1.77</v>
       </c>
       <c r="O103" s="0" t="n">
-        <v>4.17</v>
+        <v>0.59</v>
       </c>
       <c r="P103" s="0" t="n">
-        <v>0.54</v>
+        <v>3.42</v>
       </c>
       <c r="Q103" s="0" t="n">
-        <v>3.65</v>
+        <v>3.88</v>
       </c>
       <c r="R103" s="0" t="n">
-        <v>3.37</v>
+        <v>6.95</v>
       </c>
       <c r="S103" s="0" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="T103" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.8</v>
       </c>
       <c r="U103" s="0" t="n">
-        <v>-0.09</v>
+        <v>-0.55</v>
       </c>
       <c r="V103" s="0" t="n">
-        <v>-1.21</v>
+        <v>-1.26</v>
       </c>
       <c r="W103" s="0" t="n">
-        <v>-1.52</v>
+        <v>-1.97</v>
       </c>
       <c r="X103" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y103" s="0" t="n">
-        <v>2.47</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="104">
@@ -21573,79 +22726,79 @@
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>002251</t>
+          <t>600258</t>
         </is>
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>步步高</t>
+          <t>首旅酒店</t>
         </is>
       </c>
       <c r="D104" s="0" t="n">
-        <v>1.26</v>
+        <v>2.6</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>2.49</v>
+        <v>4.94</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>3.34</v>
+        <v>4.22</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>-2.06</v>
+        <v>-2.58</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>405366.41</v>
+        <v>149542.66</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>793250</v>
+        <v>221607.31</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>842241.4399999999</v>
+        <v>245644.14</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>573269.9399999999</v>
+        <v>114164.81</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>4.69</v>
+        <v>1.4</v>
       </c>
       <c r="M104" s="0" t="n">
-        <v>9.18</v>
+        <v>2.07</v>
       </c>
       <c r="N104" s="0" t="n">
-        <v>9.75</v>
+        <v>2.29</v>
       </c>
       <c r="O104" s="0" t="n">
-        <v>6.64</v>
+        <v>1.07</v>
       </c>
       <c r="P104" s="0" t="n">
-        <v>1.58</v>
+        <v>3.29</v>
       </c>
       <c r="Q104" s="0" t="n">
-        <v>6.85</v>
+        <v>5.86</v>
       </c>
       <c r="R104" s="0" t="n">
-        <v>4.26</v>
+        <v>4.95</v>
       </c>
       <c r="S104" s="0" t="n">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
       <c r="T104" s="0" t="n">
-        <v>-1.58</v>
+        <v>-0.34</v>
       </c>
       <c r="U104" s="0" t="n">
-        <v>-0.62</v>
+        <v>-0.42</v>
       </c>
       <c r="V104" s="0" t="n">
-        <v>-0.91</v>
+        <v>0.68</v>
       </c>
       <c r="W104" s="0" t="n">
-        <v>-2.79</v>
+        <v>-2.85</v>
       </c>
       <c r="X104" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y104" s="0" t="n">
-        <v>1.2</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="105">
@@ -21656,79 +22809,79 @@
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>002372</t>
+          <t>600300</t>
         </is>
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>伟星新材</t>
+          <t>维维股份</t>
         </is>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>3.19</v>
+        <v>2.4</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>5.96</v>
+        <v>2.05</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>33984.33</v>
+        <v>129777</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>69024.96000000001</v>
+        <v>252767.2</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>97651.24000000001</v>
+        <v>301130.59</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>95326.88</v>
+        <v>212743.09</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.23</v>
+        <v>0.8</v>
       </c>
       <c r="M105" s="0" t="n">
-        <v>0.47</v>
+        <v>1.56</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>0.67</v>
+        <v>1.86</v>
       </c>
       <c r="O105" s="0" t="n">
-        <v>0.65</v>
+        <v>1.32</v>
       </c>
       <c r="P105" s="0" t="n">
-        <v>1.37</v>
+        <v>0.6</v>
       </c>
       <c r="Q105" s="0" t="n">
-        <v>3.92</v>
+        <v>2.69</v>
       </c>
       <c r="R105" s="0" t="n">
-        <v>6.4</v>
+        <v>2.05</v>
       </c>
       <c r="S105" s="0" t="n">
-        <v>2.29</v>
+        <v>0.57</v>
       </c>
       <c r="T105" s="0" t="n">
-        <v>-0.97</v>
+        <v>-0.3</v>
       </c>
       <c r="U105" s="0" t="n">
-        <v>-0.55</v>
+        <v>-0.3</v>
       </c>
       <c r="V105" s="0" t="n">
-        <v>-0.88</v>
+        <v>-0.29</v>
       </c>
       <c r="W105" s="0" t="n">
-        <v>-2.29</v>
+        <v>-1.15</v>
       </c>
       <c r="X105" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y105" s="0" t="n">
-        <v>1.64</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="106">
@@ -21739,79 +22892,79 @@
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>002695</t>
+          <t>600429</t>
         </is>
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>煌上煌</t>
+          <t>三元股份</t>
         </is>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1.71</v>
+        <v>0.62</v>
       </c>
       <c r="E106" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>52291.25</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>138570.55</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>218971.42</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>194328.77</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S106" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="F106" s="0" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G106" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H106" s="0" t="n">
-        <v>46334</v>
-      </c>
-      <c r="I106" s="0" t="n">
-        <v>106263.02</v>
-      </c>
-      <c r="J106" s="0" t="n">
-        <v>161229.3</v>
-      </c>
-      <c r="K106" s="0" t="n">
-        <v>107065.44</v>
-      </c>
-      <c r="L106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" s="0" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="N106" s="0" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O106" s="0" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="P106" s="0" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q106" s="0" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R106" s="0" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="S106" s="0" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T106" s="0" t="n">
-        <v>-0.49</v>
+        <v>-0.2</v>
       </c>
       <c r="U106" s="0" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="V106" s="0" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="W106" s="0" t="n">
-        <v>-0.3</v>
+        <v>-0.78</v>
       </c>
       <c r="X106" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y106" s="0" t="n">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="107">
@@ -21822,79 +22975,79 @@
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>002732</t>
+          <t>600529</t>
         </is>
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>燕塘乳业</t>
+          <t>山东药玻</t>
         </is>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.52</v>
+        <v>1.25</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>2.41</v>
+        <v>4.66</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>4.71</v>
+        <v>2.8</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.75</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>15235</v>
+        <v>45682.47</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>34403.38</v>
+        <v>164844.42</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>71468.39999999999</v>
+        <v>195149.8</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>46595.95</v>
+        <v>82087.62</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="M107" s="0" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="N107" s="0" t="n">
-        <v>4.58</v>
+        <v>3.28</v>
       </c>
       <c r="O107" s="0" t="n">
-        <v>2.99</v>
+        <v>1.38</v>
       </c>
       <c r="P107" s="0" t="n">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="Q107" s="0" t="n">
-        <v>2.52</v>
+        <v>5.29</v>
       </c>
       <c r="R107" s="0" t="n">
-        <v>4.71</v>
+        <v>5.33</v>
       </c>
       <c r="S107" s="0" t="n">
-        <v>0.05</v>
+        <v>2.13</v>
       </c>
       <c r="T107" s="0" t="n">
-        <v>-0.51</v>
+        <v>-0.46</v>
       </c>
       <c r="U107" s="0" t="n">
-        <v>-0.21</v>
+        <v>0.18</v>
       </c>
       <c r="V107" s="0" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="W107" s="0" t="n">
-        <v>-1.44</v>
+        <v>-1.11</v>
       </c>
       <c r="X107" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y107" s="0" t="n">
-        <v>0.58</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -21905,79 +23058,79 @@
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>002852</t>
+          <t>600702</t>
         </is>
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>道道全</t>
+          <t>舍得酒业</t>
         </is>
       </c>
       <c r="D108" s="0" t="n">
-        <v>1.66</v>
+        <v>3.82</v>
       </c>
       <c r="E108" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>64939.03</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>65577.11</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>99164.96000000001</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>57411.27</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="S108" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="F108" s="0" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="G108" s="0" t="n">
-        <v>-1.79</v>
-      </c>
-      <c r="H108" s="0" t="n">
-        <v>36222</v>
-      </c>
-      <c r="I108" s="0" t="n">
-        <v>71594.59</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>99975.28999999999</v>
-      </c>
-      <c r="K108" s="0" t="n">
-        <v>74328.89999999999</v>
-      </c>
-      <c r="L108" s="0" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M108" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N108" s="0" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O108" s="0" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="P108" s="0" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q108" s="0" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="R108" s="0" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="S108" s="0" t="n">
-        <v>1.63</v>
-      </c>
       <c r="T108" s="0" t="n">
-        <v>-0.5</v>
+        <v>-0.47</v>
       </c>
       <c r="U108" s="0" t="n">
-        <v>-0.65</v>
+        <v>-0.31</v>
       </c>
       <c r="V108" s="0" t="n">
-        <v>-0.08</v>
+        <v>-0.38</v>
       </c>
       <c r="W108" s="0" t="n">
-        <v>-2.48</v>
+        <v>-2.38</v>
       </c>
       <c r="X108" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y108" s="0" t="n">
-        <v>0.47</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="109">
@@ -21988,79 +23141,79 @@
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>002859</t>
+          <t>600779</t>
         </is>
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>洁美科技</t>
+          <t>水井坊</t>
         </is>
       </c>
       <c r="D109" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>68204.23</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>108742.44</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>120377.7</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>77850.98</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P109" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="G109" s="0" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>28831.52</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>49227.07</v>
-      </c>
-      <c r="J109" s="0" t="n">
-        <v>70725.48</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>23753.82</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N109" s="0" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="O109" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P109" s="0" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q109" s="0" t="n">
-        <v>3.88</v>
+        <v>4.68</v>
       </c>
       <c r="R109" s="0" t="n">
-        <v>6.95</v>
+        <v>6.17</v>
       </c>
       <c r="S109" s="0" t="n">
-        <v>0.85</v>
+        <v>1.9</v>
       </c>
       <c r="T109" s="0" t="n">
-        <v>-0.8</v>
+        <v>0.02</v>
       </c>
       <c r="U109" s="0" t="n">
-        <v>-0.55</v>
+        <v>-0.83</v>
       </c>
       <c r="V109" s="0" t="n">
-        <v>-1.26</v>
+        <v>-0.83</v>
       </c>
       <c r="W109" s="0" t="n">
-        <v>-1.97</v>
+        <v>-1.33</v>
       </c>
       <c r="X109" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y109" s="0" t="n">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="110">
@@ -22071,577 +23224,992 @@
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>600258</t>
+          <t>600826</t>
         </is>
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>首旅酒店</t>
+          <t>兰生股份</t>
         </is>
       </c>
       <c r="D110" s="0" t="n">
-        <v>2.6</v>
+        <v>1.19</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>4.94</v>
+        <v>5.35</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>-2.58</v>
+        <v>1</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>149542.66</v>
+        <v>31142</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>221607.31</v>
+        <v>72819.36</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>245644.14</v>
+        <v>80947.39999999999</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>114164.81</v>
+        <v>64641.25</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>2.07</v>
+        <v>1.74</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>2.29</v>
+        <v>1.94</v>
       </c>
       <c r="O110" s="0" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="P110" s="0" t="n">
-        <v>3.29</v>
+        <v>1.84</v>
       </c>
       <c r="Q110" s="0" t="n">
-        <v>5.86</v>
+        <v>7.92</v>
       </c>
       <c r="R110" s="0" t="n">
-        <v>4.95</v>
+        <v>2.34</v>
       </c>
       <c r="S110" s="0" t="n">
-        <v>-0.23</v>
+        <v>3.81</v>
       </c>
       <c r="T110" s="0" t="n">
-        <v>-0.34</v>
+        <v>-0.76</v>
       </c>
       <c r="U110" s="0" t="n">
-        <v>-0.42</v>
+        <v>-0.21</v>
       </c>
       <c r="V110" s="0" t="n">
-        <v>0.68</v>
+        <v>-2.34</v>
       </c>
       <c r="W110" s="0" t="n">
-        <v>-2.85</v>
+        <v>-0.3</v>
       </c>
       <c r="X110" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="Y110" s="0" t="n">
-        <v>0.95</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>600300</t>
+          <t>000715</t>
         </is>
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>维维股份</t>
+          <t>中兴商业</t>
         </is>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.3</v>
+        <v>1.42</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2.05</v>
+        <v>0.77</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>129777</v>
+        <v>146885.66</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>252767.2</v>
+        <v>222106.95</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>301130.59</v>
+        <v>249689.12</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>212743.09</v>
+        <v>135645.48</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.8</v>
+        <v>3.54</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>1.56</v>
+        <v>5.35</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>1.86</v>
+        <v>6.02</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>1.32</v>
+        <v>3.27</v>
       </c>
       <c r="P111" s="0" t="n">
-        <v>0.6</v>
+        <v>1.42</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>2.69</v>
+        <v>2.5</v>
       </c>
       <c r="R111" s="0" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="S111" s="0" t="n">
-        <v>0.57</v>
+        <v>0.91</v>
       </c>
       <c r="T111" s="0" t="n">
-        <v>-0.3</v>
+        <v>-0.48</v>
       </c>
       <c r="U111" s="0" t="n">
-        <v>-0.3</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="V111" s="0" t="n">
-        <v>-0.29</v>
+        <v>-1.07</v>
       </c>
       <c r="W111" s="0" t="n">
-        <v>-1.15</v>
+        <v>-1.52</v>
       </c>
       <c r="X111" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y111" s="0" t="n">
-        <v>0.57</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>600429</t>
+          <t>002043</t>
         </is>
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>三元股份</t>
+          <t>兔宝宝</t>
         </is>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.62</v>
+        <v>0.91</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>2.25</v>
+        <v>6.09</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>2.6</v>
+        <v>6.17</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1.17</v>
+        <v>-3.67</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>52291.25</v>
+        <v>388819.91</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>138570.55</v>
+        <v>794260</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>218971.42</v>
+        <v>944806.9399999999</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>194328.77</v>
+        <v>602348.75</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.35</v>
+        <v>5.61</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>0.93</v>
+        <v>11.46</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>1.46</v>
+        <v>13.63</v>
       </c>
       <c r="O112" s="0" t="n">
-        <v>1.3</v>
+        <v>8.69</v>
       </c>
       <c r="P112" s="0" t="n">
-        <v>0.83</v>
+        <v>2.12</v>
       </c>
       <c r="Q112" s="0" t="n">
-        <v>2.24</v>
+        <v>7.45</v>
       </c>
       <c r="R112" s="0" t="n">
-        <v>3.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="S112" s="0" t="n">
-        <v>2.72</v>
+        <v>-0.87</v>
       </c>
       <c r="T112" s="0" t="n">
-        <v>-0.2</v>
+        <v>-0.68</v>
       </c>
       <c r="U112" s="0" t="n">
-        <v>-0.2</v>
+        <v>-0.75</v>
       </c>
       <c r="V112" s="0" t="n">
-        <v>0.2</v>
+        <v>-1.99</v>
       </c>
       <c r="W112" s="0" t="n">
-        <v>-0.78</v>
+        <v>-4.94</v>
       </c>
       <c r="X112" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y112" s="0" t="n">
-        <v>1.35</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>600529</t>
+          <t>002078</t>
         </is>
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>山东药玻</t>
+          <t>太阳纸业</t>
         </is>
       </c>
       <c r="D113" s="0" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>4.66</v>
+        <v>2.02</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2.8</v>
+        <v>1.81</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>-0.75</v>
+        <v>-0.49</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>45682.47</v>
+        <v>244525.84</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>164844.42</v>
+        <v>300397.56</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>195149.8</v>
+        <v>406811.97</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>82087.62</v>
+        <v>186782.92</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="M113" s="0" t="n">
-        <v>2.77</v>
+        <v>1.09</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>3.28</v>
+        <v>1.48</v>
       </c>
       <c r="O113" s="0" t="n">
-        <v>1.38</v>
+        <v>0.68</v>
       </c>
       <c r="P113" s="0" t="n">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="Q113" s="0" t="n">
-        <v>5.29</v>
+        <v>2.44</v>
       </c>
       <c r="R113" s="0" t="n">
-        <v>5.33</v>
+        <v>3.46</v>
       </c>
       <c r="S113" s="0" t="n">
-        <v>2.13</v>
+        <v>0.73</v>
       </c>
       <c r="T113" s="0" t="n">
-        <v>-0.46</v>
+        <v>-0.34</v>
       </c>
       <c r="U113" s="0" t="n">
-        <v>0.18</v>
+        <v>-0.34</v>
       </c>
       <c r="V113" s="0" t="n">
-        <v>-0.2</v>
+        <v>-0.49</v>
       </c>
       <c r="W113" s="0" t="n">
-        <v>-1.11</v>
+        <v>-1.05</v>
       </c>
       <c r="X113" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y113" s="0" t="n">
-        <v>0.5</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>600702</t>
+          <t>002198</t>
         </is>
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
-          <t>舍得酒业</t>
+          <t>嘉应制药</t>
         </is>
       </c>
       <c r="D114" s="0" t="n">
-        <v>3.82</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>2.95</v>
+        <v>4.6</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>4.38</v>
+        <v>5.73</v>
       </c>
       <c r="G114" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>63835</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>185484.88</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>211312.22</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>159059.39</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T114" s="0" t="n">
         <v>-0.7</v>
       </c>
-      <c r="H114" s="0" t="n">
-        <v>64939.03</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>65577.11</v>
-      </c>
-      <c r="J114" s="0" t="n">
-        <v>99164.96000000001</v>
-      </c>
-      <c r="K114" s="0" t="n">
-        <v>57411.27</v>
-      </c>
-      <c r="L114" s="0" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M114" s="0" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N114" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O114" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P114" s="0" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="Q114" s="0" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="R114" s="0" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="S114" s="0" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T114" s="0" t="n">
-        <v>-0.47</v>
-      </c>
       <c r="U114" s="0" t="n">
-        <v>-0.31</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="V114" s="0" t="n">
-        <v>-0.38</v>
+        <v>0.53</v>
       </c>
       <c r="W114" s="0" t="n">
-        <v>-2.38</v>
+        <v>-1.26</v>
       </c>
       <c r="X114" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y114" s="0" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>600779</t>
+          <t>002562</t>
         </is>
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>水井坊</t>
+          <t>兄弟科技</t>
         </is>
       </c>
       <c r="D115" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>150860.41</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>457370.81</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>1129094.12</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>763140.1899999999</v>
+      </c>
+      <c r="L115" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="E115" s="0" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="F115" s="0" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="G115" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H115" s="0" t="n">
-        <v>68204.23</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>108742.44</v>
-      </c>
-      <c r="J115" s="0" t="n">
-        <v>120377.7</v>
-      </c>
-      <c r="K115" s="0" t="n">
-        <v>77850.98</v>
-      </c>
-      <c r="L115" s="0" t="n">
-        <v>1.4</v>
-      </c>
       <c r="M115" s="0" t="n">
-        <v>2.23</v>
+        <v>6.54</v>
       </c>
       <c r="N115" s="0" t="n">
-        <v>2.46</v>
+        <v>16.13</v>
       </c>
       <c r="O115" s="0" t="n">
-        <v>1.59</v>
+        <v>10.9</v>
       </c>
       <c r="P115" s="0" t="n">
-        <v>2.62</v>
+        <v>1.14</v>
       </c>
       <c r="Q115" s="0" t="n">
-        <v>4.68</v>
+        <v>6.44</v>
       </c>
       <c r="R115" s="0" t="n">
-        <v>6.17</v>
+        <v>8.59</v>
       </c>
       <c r="S115" s="0" t="n">
-        <v>1.9</v>
+        <v>0.51</v>
       </c>
       <c r="T115" s="0" t="n">
-        <v>0.02</v>
+        <v>-0.57</v>
       </c>
       <c r="U115" s="0" t="n">
-        <v>-0.83</v>
+        <v>-0.38</v>
       </c>
       <c r="V115" s="0" t="n">
-        <v>-0.83</v>
+        <v>0.18</v>
       </c>
       <c r="W115" s="0" t="n">
-        <v>-1.33</v>
+        <v>-3.24</v>
       </c>
       <c r="X115" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y115" s="0" t="n">
-        <v>2.04</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t>600826</t>
+          <t>002596</t>
         </is>
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>兰生股份</t>
+          <t>海南瑞泽</t>
         </is>
       </c>
       <c r="D116" s="0" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>5.35</v>
+        <v>2.6</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1</v>
+        <v>-0.28</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>31142</v>
+        <v>252728</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>72819.36</v>
+        <v>338594.09</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>80947.39999999999</v>
+        <v>533087.0600000001</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>64641.25</v>
+        <v>379485.38</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.75</v>
+        <v>2.43</v>
       </c>
       <c r="M116" s="0" t="n">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>1.94</v>
+        <v>5.12</v>
       </c>
       <c r="O116" s="0" t="n">
-        <v>1.55</v>
+        <v>3.64</v>
       </c>
       <c r="P116" s="0" t="n">
-        <v>1.84</v>
+        <v>2.63</v>
       </c>
       <c r="Q116" s="0" t="n">
-        <v>7.92</v>
+        <v>2.89</v>
       </c>
       <c r="R116" s="0" t="n">
-        <v>2.34</v>
+        <v>3.66</v>
       </c>
       <c r="S116" s="0" t="n">
-        <v>3.81</v>
+        <v>1.66</v>
       </c>
       <c r="T116" s="0" t="n">
-        <v>-0.76</v>
+        <v>-0.58</v>
       </c>
       <c r="U116" s="0" t="n">
-        <v>-0.21</v>
+        <v>-0.29</v>
       </c>
       <c r="V116" s="0" t="n">
-        <v>-2.34</v>
+        <v>-1.13</v>
       </c>
       <c r="W116" s="0" t="n">
-        <v>-0.3</v>
+        <v>-0.83</v>
       </c>
       <c r="X116" s="0" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="Y116" s="0" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>瀛通通讯</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>35339.9</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>36915.8</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>112777.6</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>61320.1</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="X117" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y117" s="0" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>600189</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>泉阳泉</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>50639</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>85779.28</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>147550.09</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>82620.42999999999</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y118" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>600200</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>江苏吴中</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>226192.09</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>426718.94</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>427988.84</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>369461.81</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>600305</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>恒顺醋业</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>101849.17</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>322430.91</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>332014.78</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>156185.41</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="X120" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>600827</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>百联股份</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>62599</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>156875.58</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>179145.28</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>87159.69</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>-1.94</v>
       </c>
     </row>
   </sheetData>
@@ -22655,7 +24223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -22816,7 +24384,7 @@
         <v>0.77</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-1.37</v>
+        <v>-2.15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>146885.66</v>
@@ -22828,7 +24396,7 @@
         <v>249689.12</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>135645.49</v>
+        <v>213656.87</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>3.54</v>
@@ -22840,7 +24408,7 @@
         <v>6.02</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3.27</v>
+        <v>5.15</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1.42</v>
@@ -22852,7 +24420,7 @@
         <v>1.53</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.91</v>
+        <v>2</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>-0.48</v>
@@ -22864,13 +24432,13 @@
         <v>-1.07</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-1.52</v>
+        <v>-2.62</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>0.02</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="3">
@@ -22899,7 +24467,7 @@
         <v>6.17</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-3.67</v>
+        <v>-4.44</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>388819.91</v>
@@ -22911,7 +24479,7 @@
         <v>944806.9399999999</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>602348.77</v>
+        <v>535610.21</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>5.61</v>
@@ -22923,7 +24491,7 @@
         <v>13.63</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>8.69</v>
+        <v>7.73</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>2.12</v>
@@ -22935,7 +24503,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-0.87</v>
+        <v>1.6</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>-0.68</v>
@@ -22947,13 +24515,13 @@
         <v>-1.99</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-4.94</v>
+        <v>-5.13</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>-0.02</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="4">
@@ -22982,7 +24550,7 @@
         <v>1.81</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-0.49</v>
+        <v>-1.38</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>244525.84</v>
@@ -22994,7 +24562,7 @@
         <v>406811.97</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>186782.93</v>
+        <v>149523.91</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0.89</v>
@@ -23006,7 +24574,7 @@
         <v>1.48</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>2.03</v>
@@ -23018,7 +24586,7 @@
         <v>3.46</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.73</v>
+        <v>1.3</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>-0.34</v>
@@ -23030,13 +24598,13 @@
         <v>-0.49</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-1.05</v>
+        <v>-2.03</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>0.01</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="5">
@@ -23065,7 +24633,7 @@
         <v>5.73</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>63835</v>
@@ -23077,7 +24645,7 @@
         <v>211312.22</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>159059.39</v>
+        <v>134763.49</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1.26</v>
@@ -23089,7 +24657,7 @@
         <v>4.16</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0.98</v>
@@ -23101,7 +24669,7 @@
         <v>6.92</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>2.27</v>
+        <v>1.51</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>-0.7</v>
@@ -23113,13 +24681,13 @@
         <v>0.53</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-1.26</v>
+        <v>-1.38</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-0.83</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="6">
@@ -23148,7 +24716,7 @@
         <v>7.31</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-2.56</v>
+        <v>-5.59</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>150860.41</v>
@@ -23160,7 +24728,7 @@
         <v>1129094.12</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>763140.2</v>
+        <v>1011896.19</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2.16</v>
@@ -23172,7 +24740,7 @@
         <v>16.13</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>10.9</v>
+        <v>14.46</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>1.14</v>
@@ -23184,7 +24752,7 @@
         <v>8.59</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0.51</v>
+        <v>-0.87</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>-0.57</v>
@@ -23196,13 +24764,13 @@
         <v>0.18</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-3.24</v>
+        <v>-7.17</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>3.92</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -23231,7 +24799,7 @@
         <v>1.97</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-0.28</v>
+        <v>0.28</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>252728</v>
@@ -23243,7 +24811,7 @@
         <v>533087.0600000001</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>379485.37</v>
+        <v>664236.62</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2.43</v>
@@ -23255,7 +24823,7 @@
         <v>5.12</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3.64</v>
+        <v>6.38</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2.63</v>
@@ -23267,7 +24835,7 @@
         <v>3.66</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>1.66</v>
+        <v>4.71</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>-0.58</v>
@@ -23279,13 +24847,13 @@
         <v>-1.13</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-0.83</v>
+        <v>-1.39</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>1.8</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -23314,7 +24882,7 @@
         <v>1.69</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-1.03</v>
+        <v>-0.72</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>35339.9</v>
@@ -23326,7 +24894,7 @@
         <v>112777.6</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>61320.1</v>
+        <v>82529.7</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>3.26</v>
@@ -23338,7 +24906,7 @@
         <v>10.41</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>5.66</v>
+        <v>7.62</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>4.39</v>
@@ -23350,7 +24918,7 @@
         <v>7.98</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0.79</v>
+        <v>3.61</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>-1</v>
@@ -23362,13 +24930,13 @@
         <v>-1.94</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-2.46</v>
+        <v>-1.84</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>4.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
@@ -23379,79 +24947,79 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>600189</t>
+          <t>002942</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>泉阳泉</t>
+          <t>新农股份</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.15</v>
+        <v>1.01</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.72</v>
+        <v>4.86</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.99</v>
+        <v>-3.49</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>50639</v>
+        <v>10523.86</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>85779.28</v>
+        <v>42545.65</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>147550.09</v>
+        <v>54792.61</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>82620.42999999999</v>
+        <v>24421.4</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1.2</v>
+        <v>3.08</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>2.06</v>
+        <v>3.97</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>1.15</v>
+        <v>1.77</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.44</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>2.2</v>
+        <v>7.53</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2.59</v>
+        <v>5.91</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>-0.73</v>
+        <v>0.16</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>-0.59</v>
+        <v>1.12</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>-0.57</v>
+        <v>0.42</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-1.41</v>
+        <v>-3.83</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>0.58</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="10">
@@ -23462,79 +25030,79 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>600200</t>
+          <t>600189</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>江苏吴中</t>
+          <t>泉阳泉</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.57</v>
+        <v>0.57</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>226192.09</v>
+        <v>50639</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>426718.94</v>
+        <v>85779.28</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>427988.84</v>
+        <v>147550.09</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>369461.81</v>
+        <v>196946.87</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>3.19</v>
+        <v>0.71</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>6.02</v>
+        <v>1.2</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>6.04</v>
+        <v>2.06</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>5.21</v>
+        <v>2.75</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1.68</v>
+        <v>0.44</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>5.62</v>
+        <v>2.2</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3.85</v>
+        <v>2.59</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-1.56</v>
+        <v>-0.73</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-0.72</v>
+        <v>-0.59</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>-0.79</v>
+        <v>-0.57</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-2.13</v>
+        <v>0</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>-0.7</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="11">
@@ -23545,79 +25113,79 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>600305</t>
+          <t>600200</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>恒顺醋业</t>
+          <t>江苏吴中</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3.88</v>
+        <v>5.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3.33</v>
+        <v>1.36</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-1.08</v>
+        <v>-1.65</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>101849.17</v>
+        <v>226192.09</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>322430.91</v>
+        <v>426718.94</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>332014.78</v>
+        <v>427988.84</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>156185.41</v>
+        <v>532533.83</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1.02</v>
+        <v>3.19</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3.21</v>
+        <v>6.02</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>3.31</v>
+        <v>6.04</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1.56</v>
+        <v>7.52</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>4.53</v>
+        <v>5.62</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>4.52</v>
+        <v>3.85</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0.46</v>
+        <v>3.41</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>-0.42</v>
+        <v>-1.56</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>-0.08</v>
+        <v>-0.72</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0.24</v>
+        <v>-0.79</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>-1.46</v>
+        <v>-2.42</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.37</v>
+        <v>-0.39</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -23628,79 +25196,162 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
+          <t>600305</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>恒顺醋业</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>101849.17</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>322430.91</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>332014.78</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>240523.89</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
           <t>600827</t>
         </is>
       </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>百联股份</t>
         </is>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>2.07</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="G13" s="0" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>62599</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>156875.58</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>179145.28</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>87159.69</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="K13" s="0" t="n">
+        <v>112931.4</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="O13" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P13" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>3.79</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T12" s="0" t="n">
+      <c r="S13" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T13" s="0" t="n">
         <v>-0.43</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>0.17</v>
       </c>
-      <c r="W12" s="0" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>1.52</v>
+      <c r="W13" s="0" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>-0.27</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -12729,7 +12729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -12870,1086 +12870,1086 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>300084</t>
+          <t>300001</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>海默科技</t>
+          <t>特锐德</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2.71</v>
+        <v>1.02</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.64</v>
+        <v>4.22</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.41</v>
+        <v>4.11</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.43</v>
+        <v>-5.09</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>190141.98</v>
+        <v>193027.92</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>221968.56</v>
+        <v>338430.53</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>263691.69</v>
+        <v>382812.25</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>329622.15</v>
+        <v>379276.02</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>5.77</v>
+        <v>1.95</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>6.73</v>
+        <v>3.42</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>8</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>10</v>
+        <v>3.82</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>5.27</v>
+        <v>5.92</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3.53</v>
+        <v>4.97</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>6.19</v>
+        <v>-1.14</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.17</v>
+        <v>-0.86</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-1.32</v>
+        <v>-0.9</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-2.57</v>
+        <v>-0.97</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0</v>
+        <v>-6.49</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>300250</t>
+          <t>300039</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>初灵信息</t>
+          <t>上海凯宝</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.27</v>
+        <v>2.07</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>4.3</v>
+        <v>3.64</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3.25</v>
+        <v>7.42</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-11.21</v>
+        <v>-3.15</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>552845.5600000001</v>
+        <v>377836.81</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>565557.12</v>
+        <v>970593.12</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>641049.25</v>
+        <v>1591022.88</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>786563.72</v>
+        <v>1139414.2</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>34.7</v>
+        <v>4.12</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>35.49</v>
+        <v>10.59</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>40.23</v>
+        <v>17.36</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>49.36</v>
+        <v>12.43</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R3" s="0" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>10.12</v>
-      </c>
       <c r="S3" s="0" t="n">
-        <v>-2.79</v>
+        <v>0.36</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-2.55</v>
+        <v>-0.27</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-5.68</v>
+        <v>-0.4</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-3.87</v>
+        <v>-1.82</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-11.33</v>
+        <v>-4.12</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>-3.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>300401</t>
+          <t>300062</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>花园生物</t>
+          <t>中能电气</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-2.93</v>
+        <v>-5.17</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>89370.41</v>
+        <v>151897</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>182564.56</v>
+        <v>348068.97</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>212439.42</v>
+        <v>487934.62</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>132311.16</v>
+        <v>439986.19</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1.65</v>
+        <v>4.01</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3.37</v>
+        <v>9.19</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3.92</v>
+        <v>12.88</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2.44</v>
+        <v>11.61</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>5.53</v>
+        <v>4.44</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3.29</v>
+        <v>3.59</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.25</v>
+        <v>-1.12</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-0.47</v>
+        <v>-0.29</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0</v>
+        <v>-1.58</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-3.76</v>
+        <v>-6.42</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>300500</t>
+          <t>300141</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>启迪设计</t>
+          <t>和顺电气</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.3</v>
+        <v>2.21</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4.08</v>
+        <v>2.88</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-4.6</v>
+        <v>-5.73</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>47843</v>
+        <v>48750.31</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>81297.39999999999</v>
+        <v>91069.2</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>99606.16</v>
+        <v>112820.31</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>62016.32</v>
+        <v>97951.3</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>2.91</v>
+        <v>2.48</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>4.95</v>
+        <v>4.63</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>6.06</v>
+        <v>5.74</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3.77</v>
+        <v>4.98</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>5.55</v>
+        <v>5.45</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>7.09</v>
+        <v>5</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>-0.77</v>
+        <v>-0.93</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>-1.19</v>
+        <v>-1.1</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-5.16</v>
+        <v>-6.8</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-0.29</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>300518</t>
+          <t>300398</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>盛讯达</t>
+          <t>飞凯材料</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.47</v>
+        <v>1.03</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4.13</v>
+        <v>3.27</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-0.13</v>
+        <v>-3.64</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>20629.84</v>
+        <v>117736.04</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>22181.42</v>
+        <v>219577.31</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>26749.4</v>
+        <v>249755.09</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>23397.87</v>
+        <v>223099.86</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1.51</v>
+        <v>2.24</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1.62</v>
+        <v>4.18</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>1.96</v>
+        <v>4.76</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>1.71</v>
+        <v>4.25</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>3.2</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>3.54</v>
+        <v>4.95</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>3.72</v>
+        <v>0.96</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-1.19</v>
+        <v>-1.14</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.64</v>
+        <v>-0.15</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>-0.76</v>
+        <v>-0.99</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-1.04</v>
+        <v>-4.79</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>-1.77</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>300616</t>
+          <t>300632</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>尚品宅配</t>
+          <t>光莆股份</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4.76</v>
+        <v>2.2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3.72</v>
+        <v>1.43</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-4.26</v>
+        <v>-3.89</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>49096.4</v>
+        <v>49551.66</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>76552.66</v>
+        <v>69288.35000000001</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>82245.99000000001</v>
+        <v>76991.60000000001</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>41698.6</v>
+        <v>81430.52</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>3.77</v>
+        <v>2.42</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5.88</v>
+        <v>3.38</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>6.32</v>
+        <v>3.76</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>3.2</v>
+        <v>3.98</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>4.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>4.76</v>
+        <v>3.66</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>5.7</v>
+        <v>2.44</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.97</v>
+        <v>0.49</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.48</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>-0.87</v>
+        <v>-0.59</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-1.45</v>
+        <v>-0.79</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-5.19</v>
+        <v>-4.59</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>-2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>300682</t>
+          <t>300724</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>朗新科技</t>
+          <t>捷佳伟创</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5.06</v>
+        <v>4.29</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.55</v>
+        <v>6.05</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-5.28</v>
+        <v>-4.3</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>94836.7</v>
+        <v>63126.73</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>141818.62</v>
+        <v>124189.23</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>195244.64</v>
+        <v>163852.98</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>155790.32</v>
+        <v>100116.66</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.92</v>
+        <v>2.31</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.38</v>
+        <v>4.55</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1.52</v>
+        <v>3.67</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>5.49</v>
+        <v>5.2</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>5.88</v>
+        <v>6.31</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>-1.51</v>
+        <v>-0.1</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>-0.41</v>
+        <v>-0.64</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>-0.65</v>
+        <v>-0.4</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>-0.52</v>
+        <v>-0.48</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-6.03</v>
+        <v>-5.15</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>-0.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>300779</t>
+          <t>300811</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>惠城环保</t>
+          <t>铂科新材</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.74</v>
+        <v>2.76</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6.93</v>
+        <v>5.57</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5.84</v>
+        <v>3.16</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.46</v>
+        <v>-2.82</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>24279.93</v>
+        <v>9554.58</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>43503.5</v>
+        <v>24441.33</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>45404.6</v>
+        <v>36960.25</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>47992.37</v>
+        <v>44112.26</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>2.7</v>
+        <v>1.11</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4.84</v>
+        <v>2.83</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>5.05</v>
+        <v>4.29</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>5.34</v>
+        <v>5.12</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>2.91</v>
+        <v>4.21</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>9.359999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>5.17</v>
+        <v>5.11</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.05</v>
+        <v>-0.39</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>0.61</v>
+        <v>1.17</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>-2.03</v>
+        <v>0.34</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>-1.62</v>
+        <v>-3.34</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>-0.8</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>300795</t>
+          <t>300826</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>米奥会展</t>
+          <t>测绘股份</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3.41</v>
+        <v>1.23</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>6.8</v>
+        <v>2.73</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.04</v>
+        <v>4.58</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-6.33</v>
+        <v>-5.15</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>10181</v>
+        <v>11954.96</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>13677.83</v>
+        <v>21888.24</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>13940.64</v>
+        <v>65299.22</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>17969.5</v>
+        <v>43924.3</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2.74</v>
+        <v>3.27</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>2.8</v>
+        <v>9.75</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>3.61</v>
+        <v>6.56</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>4.76</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>8.35</v>
+        <v>3.56</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>5.09</v>
+        <v>6.64</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.48</v>
+        <v>-0.64</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>-1.61</v>
+        <v>-0.38</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>-2.41</v>
+        <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>-0.33</v>
+        <v>-0.66</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>-6.81</v>
+        <v>-5.79</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>-1.05</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>300915</t>
+          <t>300981</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>海融科技</t>
+          <t>中红医疗</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2.04</v>
+        <v>3.82</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-1.95</v>
+        <v>-3.73</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4518</v>
+        <v>32571.83</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>9006.5</v>
+        <v>63041.97</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>13317.88</v>
+        <v>68338.27</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>11553.16</v>
+        <v>99002.27</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1.82</v>
+        <v>3.45</v>
       </c>
       <c r="M11" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3.28</v>
-      </c>
       <c r="S11" s="0" t="n">
-        <v>3.26</v>
+        <v>4.42</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>-0.85</v>
+        <v>-0.61</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0.04</v>
+        <v>-0.19</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0.24</v>
+        <v>-0.36</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>-2.36</v>
+        <v>-4.68</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>301020</t>
+          <t>301111</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>密封科技</t>
+          <t>粤万年青</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5.24</v>
+        <v>6.74</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7.04</v>
+        <v>2.92</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-4.03</v>
+        <v>0.86</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>6293.4</v>
+        <v>14239.87</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>35602.95</v>
+        <v>67000.82000000001</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>50017.72</v>
+        <v>71002.67</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>24067.09</v>
+        <v>70378.42999999999</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.86</v>
+        <v>2.03</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>4.88</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>6.86</v>
+        <v>10.12</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>3.3</v>
+        <v>10.03</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>9.9</v>
+        <v>6.74</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>10.2</v>
+        <v>4.46</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1.47</v>
+        <v>3.95</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>-0.93</v>
+        <v>0.05</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>-2.61</v>
+        <v>-1.5</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>-5.07</v>
+        <v>-1.8</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>0.61</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>301038</t>
+          <t>301130</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>深水规院</t>
+          <t>西点药业</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2.44</v>
+        <v>2.01</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.98</v>
+        <v>2.29</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-3.17</v>
+        <v>0.03</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>8593.68</v>
+        <v>6237</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19758.77</v>
+        <v>14383.04</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>27902.38</v>
+        <v>17060.11</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>18766.44</v>
+        <v>25379.78</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>4.61</v>
+        <v>7.12</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>6.5</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>4.37</v>
+        <v>12.57</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>1.7</v>
+        <v>0.65</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>3.66</v>
+        <v>2.41</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.78</v>
+        <v>4.1</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.06</v>
+        <v>-0.39</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>-0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>-4.36</v>
+        <v>-1.55</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>0.59</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>301120</t>
+          <t>301133</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>新特电气</t>
+          <t>金钟股份</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5.83</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3.02</v>
+        <v>2.33</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7.64</v>
+        <v>4.18</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-9.039999999999999</v>
+        <v>-4.27</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>144077.88</v>
+        <v>7319.06</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>158367.48</v>
+        <v>14555.54</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>204346.95</v>
+        <v>30314.5</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>150811.92</v>
+        <v>19912.9</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>25.46</v>
+        <v>2.33</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>27.98</v>
+        <v>4.63</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>36.11</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>26.65</v>
+        <v>6.33</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>7.73</v>
+        <v>0.98</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>10.15</v>
+        <v>3.7</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>9.26</v>
+        <v>5.51</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>-1.04</v>
+        <v>1.02</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>1.52</v>
+        <v>-0.46</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>-2.76</v>
+        <v>-0.16</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>-3.14</v>
+        <v>-1.1</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>-9.83</v>
+        <v>-4.89</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>11.15</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -13963,70 +13963,153 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1.5</v>
+        <v>6.43</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6.43</v>
+        <v>-1.54</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>-4.09</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>22805</v>
+        <v>34004.79</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>34004.79</v>
+        <v>125956.69</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>125956.69</v>
+        <v>80125.67999999999</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>83481.56</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>3.8</v>
+        <v>5.67</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>5.67</v>
+        <v>20.99</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>20.99</v>
+        <v>13.35</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>13.91</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>1.14</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>2.38</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>8.779999999999999</v>
+        <v>-0.86</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>2.49</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>-0.83</v>
+        <v>-0.73</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>-0.73</v>
+        <v>-0.66</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>-0.66</v>
+        <v>-3.07</v>
       </c>
       <c r="W15" s="0" t="n">
         <v>-5.07</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>3.22</v>
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>301120</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>新特电气</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>158367.48</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>204346.95</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>158788.95</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>150811.92</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -24223,7 +24306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -24361,997 +24444,582 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000715</t>
+          <t>002227</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>中兴商业</t>
+          <t>奥特迅</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.77</v>
+        <v>2.21</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-2.15</v>
+        <v>-2.56</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>146885.66</v>
+        <v>80253.71000000001</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>222106.95</v>
+        <v>109241.18</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>249689.12</v>
+        <v>176443.94</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>213656.87</v>
+        <v>139011.71</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3.54</v>
+        <v>3.27</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>5.35</v>
+        <v>4.45</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>6.02</v>
+        <v>7.19</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>5.15</v>
+        <v>5.66</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1.42</v>
+        <v>3.01</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>1.53</v>
+        <v>7.11</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.48</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-1.07</v>
+        <v>-0.6</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-2.62</v>
+        <v>-4.2</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-2.31</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>002043</t>
+          <t>002362</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>兔宝宝</t>
+          <t>汉王科技</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.91</v>
+        <v>1.83</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>6.09</v>
+        <v>3.44</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>6.17</v>
+        <v>3.1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-4.44</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>388819.91</v>
+        <v>525912.0600000001</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>794260</v>
+        <v>657215.8100000001</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>944806.9399999999</v>
+        <v>723046.38</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>535610.21</v>
+        <v>714541.5</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>5.61</v>
+        <v>25.42</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>11.46</v>
+        <v>31.77</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>13.63</v>
+        <v>34.95</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>7.73</v>
+        <v>34.54</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>2.12</v>
+        <v>3.33</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>7.45</v>
+        <v>4.97</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>9.859999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1.6</v>
+        <v>3.12</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.68</v>
+        <v>-1.14</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-0.75</v>
+        <v>-6.09</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-1.99</v>
+        <v>-3.41</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-5.13</v>
+        <v>-5.38</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>-4.66</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002078</t>
+          <t>002519</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>太阳纸业</t>
+          <t>银河电子</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.02</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.81</v>
+        <v>4.82</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-1.38</v>
+        <v>-4.07</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>244525.84</v>
+        <v>185717</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>300397.56</v>
+        <v>397974.59</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>406811.97</v>
+        <v>733648.62</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>149523.91</v>
+        <v>641418.97</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.89</v>
+        <v>1.87</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1.09</v>
+        <v>4.01</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>1.48</v>
+        <v>7.4</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.54</v>
+        <v>6.47</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>2.03</v>
+        <v>0.76</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>2.44</v>
+        <v>3.24</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3.46</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-0.34</v>
+        <v>-0.2</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>-0.34</v>
+        <v>0.38</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>-0.49</v>
+        <v>-0.74</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-2.03</v>
+        <v>-4.96</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>-2.96</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>002198</t>
+          <t>002827</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>嘉应制药</t>
+          <t>高争民爆</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4.6</v>
+        <v>2.63</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5.73</v>
+        <v>3.75</v>
       </c>
       <c r="G5" s="0" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>40384</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>76805.5</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>176988.52</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>133602.92</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>63835</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>185484.88</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>211312.22</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>134763.49</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1.51</v>
-      </c>
       <c r="T5" s="0" t="n">
-        <v>-0.7</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0.53</v>
+        <v>-0.82</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-1.38</v>
+        <v>-4.85</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-3.03</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>002562</t>
+          <t>600351</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>兄弟科技</t>
+          <t>亚宝药业</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3.6</v>
+        <v>2.43</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7.31</v>
+        <v>0.63</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-5.59</v>
+        <v>-0.47</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>150860.41</v>
+        <v>79914.33</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>457370.81</v>
+        <v>154809.06</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1129094.12</v>
+        <v>189877.41</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1011896.19</v>
+        <v>199931.96</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>6.54</v>
+        <v>2.01</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>16.13</v>
+        <v>2.47</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>14.46</v>
+        <v>2.6</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>6.44</v>
+        <v>2.75</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>8.59</v>
+        <v>2.84</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>-0.87</v>
+        <v>1.88</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>-0.57</v>
+        <v>0.16</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.38</v>
+        <v>-0.32</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-7.17</v>
+        <v>-1.73</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>2.61</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>002596</t>
+          <t>600362</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>海南瑞泽</t>
+          <t>江西铜业</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>95452.45</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>347873.62</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>469410.44</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>283250.84</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>252728</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>338594.09</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>533087.0600000001</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>664236.62</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q7" s="0" t="n">
-        <v>2.89</v>
+        <v>5.84</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3.66</v>
+        <v>6</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>4.71</v>
+        <v>-0.8</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-0.58</v>
+        <v>-0.53</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>-0.29</v>
+        <v>0.58</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-1.13</v>
+        <v>-0.26</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-1.39</v>
+        <v>-4.19</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>600498</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>瀛通通讯</t>
+          <t>烽火通信</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.66</v>
+        <v>1.06</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2.06</v>
+        <v>3.21</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.69</v>
+        <v>6.17</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.72</v>
+        <v>-3.23</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>35339.9</v>
+        <v>155610.19</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>36915.8</v>
+        <v>248450.59</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>112777.6</v>
+        <v>414040.72</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>82529.7</v>
+        <v>429426.26</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>3.26</v>
+        <v>1.38</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3.41</v>
+        <v>2.2</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>10.41</v>
+        <v>3.66</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>7.62</v>
+        <v>3.8</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>4.39</v>
+        <v>2.45</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>2.8</v>
+        <v>5.38</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>7.98</v>
+        <v>6.36</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>3.61</v>
+        <v>2.04</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>-1.94</v>
+        <v>0.51</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-1.84</v>
+        <v>-4.07</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.39</v>
+        <v>-0.96</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>002942</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>新农股份</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>-3.49</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>10523.86</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>42545.65</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>54792.61</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>24421.4</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>-3.83</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>600189</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>泉阳泉</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>50639</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>85779.28</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>147550.09</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>196946.87</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Y10" s="0" t="n">
         <v>-0.65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>600200</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>江苏吴中</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>226192.09</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>426718.94</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>427988.84</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>532533.83</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>600305</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>恒顺醋业</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>101849.17</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>322430.91</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>332014.78</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>240523.89</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>-1.37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>600827</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>百联股份</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>62599</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>156875.58</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>179145.28</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>112931.4</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>-2.53</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>-0.27</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y146"/>
+  <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A269" sqref="A136:XFD269"/>
@@ -12716,6 +12716,1085 @@
         <v>-4.09</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>300001</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>特锐德</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>193027.92</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>338430.53</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>382812.25</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>379276</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N147" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O147" s="0" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q147" s="0" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="S147" s="0" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="T147" s="0" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="U147" s="0" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="V147" s="0" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="W147" s="0" t="n">
+        <v>-6.49</v>
+      </c>
+      <c r="X147" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y147" s="0" t="n">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>300039</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>上海凯宝</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>377836.81</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>970593.12</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>1591022.88</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>1139414.25</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="N148" s="0" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="O148" s="0" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Q148" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S148" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T148" s="0" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="U148" s="0" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="V148" s="0" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="W148" s="0" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="X148" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y148" s="0" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>300062</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>中能电气</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>151897</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>348068.97</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>487934.62</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>439986.19</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="N149" s="0" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="O149" s="0" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q149" s="0" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S149" s="0" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="T149" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="U149" s="0" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V149" s="0" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="W149" s="0" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="X149" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y149" s="0" t="n">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>300141</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>和顺电气</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>48750.31</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>91069.2</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>112820.31</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>97951.3</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="N150" s="0" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="O150" s="0" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q150" s="0" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T150" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="U150" s="0" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="V150" s="0" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="W150" s="0" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="X150" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y150" s="0" t="n">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>300398</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>飞凯材料</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>117736.04</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>219577.31</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>249755.09</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>223099.86</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="N151" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="O151" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="P151" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q151" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S151" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="T151" s="0" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="U151" s="0" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="V151" s="0" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="W151" s="0" t="n">
+        <v>-4.79</v>
+      </c>
+      <c r="X151" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y151" s="0" t="n">
+        <v>-2.24</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>300632</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>光莆股份</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>49551.66</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>69288.35000000001</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>76991.60000000001</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <v>81430.52</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M152" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N152" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O152" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="P152" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q152" s="0" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R152" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S152" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T152" s="0" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="U152" s="0" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="V152" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="W152" s="0" t="n">
+        <v>-4.59</v>
+      </c>
+      <c r="X152" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y152" s="0" t="n">
+        <v>-1.76</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>300724</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>捷佳伟创</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>63126.73</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>124189.23</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>163852.98</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>100116.66</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N153" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O153" s="0" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="P153" s="0" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q153" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="S153" s="0" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="T153" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="U153" s="0" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="V153" s="0" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="W153" s="0" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="X153" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y153" s="0" t="n">
+        <v>-3.35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>300811</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>铂科新材</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>9554.58</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>24441.33</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>36960.25</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <v>44112.26</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N154" s="0" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O154" s="0" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="P154" s="0" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q154" s="0" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="R154" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S154" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="T154" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="U154" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V154" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W154" s="0" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="X154" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y154" s="0" t="n">
+        <v>-6.38</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>300826</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>测绘股份</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>11954.96</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>21888.24</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>65299.22</v>
+      </c>
+      <c r="K155" s="0" t="n">
+        <v>43924.3</v>
+      </c>
+      <c r="L155" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M155" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="N155" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O155" s="0" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="P155" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q155" s="0" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R155" s="0" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="S155" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="T155" s="0" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="U155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" s="0" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="W155" s="0" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="X155" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y155" s="0" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>300981</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>中红医疗</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>-3.73</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>32571.83</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>63041.97</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>68338.27</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>99002.27</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="N156" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="O156" s="0" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="P156" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q156" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="R156" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S156" s="0" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="T156" s="0" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="U156" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="V156" s="0" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="W156" s="0" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="X156" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y156" s="0" t="n">
+        <v>-1.35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>301111</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>粤万年青</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>14239.87</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>67000.82000000001</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>71002.67</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <v>70378.42999999999</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="N157" s="0" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="O157" s="0" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="P157" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q157" s="0" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="R157" s="0" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S157" s="0" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V157" s="0" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="W157" s="0" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X157" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y157" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>301130</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>西点药业</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>6237</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>14383.04</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>17060.11</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <v>25379.78</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M158" s="0" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="N158" s="0" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="O158" s="0" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="P158" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q158" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S158" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T158" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="U158" s="0" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="W158" s="0" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="X158" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y158" s="0" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>301133</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>金钟股份</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>7319.06</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>14555.54</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>30314.5</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <v>19912.9</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M159" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="N159" s="0" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="O159" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="P159" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q159" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="S159" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T159" s="0" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="U159" s="0" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="W159" s="0" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="X159" s="0" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y159" s="0" t="n">
+        <v>-1.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -12729,7 +13808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -12870,1246 +13949,167 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>300001</t>
+          <t>301045</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>特锐德</t>
+          <t>天禄科技</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.02</v>
+        <v>1.77</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>4.22</v>
+        <v>2.16</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>4.11</v>
+        <v>5.41</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-5.09</v>
+        <v>-2</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>193027.92</v>
+        <v>8823.33</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>338430.53</v>
+        <v>13461.99</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>382812.25</v>
+        <v>46290.16</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>379276.02</v>
+        <v>28185.96</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3.42</v>
+        <v>2.59</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3.86</v>
+        <v>8.9</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3.82</v>
+        <v>5.42</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>2.84</v>
+        <v>2.09</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>5.92</v>
+        <v>2.63</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>4.97</v>
+        <v>10.57</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-1.14</v>
+        <v>-0.59</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.86</v>
+        <v>-0.27</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-0.97</v>
+        <v>0.72</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-6.49</v>
+        <v>-4.4</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>1.45</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>300039</t>
+          <t>301339</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>上海凯宝</t>
+          <t>通行宝</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2.07</v>
+        <v>0.79</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7.42</v>
+        <v>0.85</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-3.15</v>
+        <v>-2.81</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>377836.81</v>
+        <v>53823.47</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>970593.12</v>
+        <v>88361.25999999999</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1591022.88</v>
+        <v>100613.16</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1139414.2</v>
+        <v>53173.25</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>4.12</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>10.59</v>
+        <v>15.68</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>17.36</v>
+        <v>17.86</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>12.43</v>
+        <v>9.44</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>2.21</v>
+        <v>1.18</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3.64</v>
+        <v>3.87</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>8.199999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.36</v>
+        <v>0.84</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.27</v>
+        <v>-1.33</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-0.4</v>
+        <v>-1.52</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-1.82</v>
+        <v>-2.03</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-4.12</v>
+        <v>-4.64</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>300062</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>中能电气</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>-5.17</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>151897</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>348068.97</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>487934.62</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>439986.19</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>-6.42</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>300141</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>和顺电气</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>48750.31</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>91069.2</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>112820.31</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>97951.3</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>300398</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>飞凯材料</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>117736.04</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>219577.31</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>249755.09</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>223099.86</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>-1.14</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>-4.79</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>300632</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>光莆股份</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>49551.66</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>69288.35000000001</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>76991.60000000001</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>81430.52</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>-4.59</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>300724</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>捷佳伟创</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>63126.73</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>124189.23</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>163852.98</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>100116.66</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>-5.15</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>300811</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>铂科新材</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>9554.58</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>24441.33</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>36960.25</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>44112.26</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>-3.34</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>300826</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>测绘股份</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>-5.15</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>11954.96</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>21888.24</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>65299.22</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>43924.3</v>
-      </c>
-      <c r="L10" s="0" t="n">
         <v>1.78</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>-0.64</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>-5.79</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>300981</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>中红医疗</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>-3.73</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>32571.83</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>63041.97</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>68338.27</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>99002.27</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>-4.68</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>301111</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>粤万年青</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>14239.87</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>67000.82000000001</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>71002.67</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>70378.42999999999</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>-4.3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>301130</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>西点药业</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>6237</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>14383.04</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>17060.11</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>25379.78</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>-1.23</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>301133</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>金钟股份</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>-4.27</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>7319.06</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>14555.54</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>30314.5</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>19912.9</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>-4.89</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>300950</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>德固特</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>34004.79</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>125956.69</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>80125.67999999999</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>83481.56</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>-5.07</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>-2.16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>301120</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>新特电气</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>-9.039999999999999</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>158367.48</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>204346.95</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>158788.95</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>150811.92</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>27.98</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>36.11</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>26.65</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>-1.04</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>-3.14</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>-4.38</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>-9.83</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -14124,7 +14124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y121"/>
+  <dimension ref="A1:Y128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="E123" sqref="E123"/>
@@ -24295,6 +24295,587 @@
         <v>-1.94</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>奥特迅</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="H122" t="n">
+        <v>80253.71000000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>109241.18</v>
+      </c>
+      <c r="J122" t="n">
+        <v>176443.94</v>
+      </c>
+      <c r="K122" t="n">
+        <v>139011.7</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="N122" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="O122" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="P122" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="R122" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U122" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="V122" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="W122" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="X122" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002362</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汉王科技</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>525912.0600000001</v>
+      </c>
+      <c r="I123" t="n">
+        <v>657215.8100000001</v>
+      </c>
+      <c r="J123" t="n">
+        <v>723046.38</v>
+      </c>
+      <c r="K123" t="n">
+        <v>714541.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="M123" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="N123" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="O123" t="n">
+        <v>34.54</v>
+      </c>
+      <c r="P123" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="T123" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="U123" t="n">
+        <v>-6.09</v>
+      </c>
+      <c r="V123" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="W123" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="X123" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002519</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河电子</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="H124" t="n">
+        <v>185717</v>
+      </c>
+      <c r="I124" t="n">
+        <v>397974.59</v>
+      </c>
+      <c r="J124" t="n">
+        <v>733648.62</v>
+      </c>
+      <c r="K124" t="n">
+        <v>641418.9399999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="N124" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O124" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="R124" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T124" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="V124" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="W124" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="X124" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>-2.03</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002827</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>高争民爆</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="H125" t="n">
+        <v>40384</v>
+      </c>
+      <c r="I125" t="n">
+        <v>76805.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>176988.52</v>
+      </c>
+      <c r="K125" t="n">
+        <v>133602.92</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="O125" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R125" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="U125" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="V125" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="W125" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="X125" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>600351</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>亚宝药业</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="H126" t="n">
+        <v>79914.33</v>
+      </c>
+      <c r="I126" t="n">
+        <v>154809.06</v>
+      </c>
+      <c r="J126" t="n">
+        <v>189877.41</v>
+      </c>
+      <c r="K126" t="n">
+        <v>199931.95</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U126" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="X126" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>600362</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>江西铜业</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="H127" t="n">
+        <v>95452.45</v>
+      </c>
+      <c r="I127" t="n">
+        <v>347873.62</v>
+      </c>
+      <c r="J127" t="n">
+        <v>469410.44</v>
+      </c>
+      <c r="K127" t="n">
+        <v>283250.84</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="R127" t="n">
+        <v>6</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="T127" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V127" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="W127" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="X127" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>600498</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>烽火通信</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>155610.19</v>
+      </c>
+      <c r="I128" t="n">
+        <v>248450.59</v>
+      </c>
+      <c r="J128" t="n">
+        <v>414040.72</v>
+      </c>
+      <c r="K128" t="n">
+        <v>429426.25</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="P128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="R128" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T128" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W128" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="X128" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>-1.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24306,7 +24887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -24444,582 +25025,914 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>002227</t>
+          <t>000042</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>奥特迅</t>
+          <t>中洲控股</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.96</v>
+        <v>0.6</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.21</v>
+        <v>3.37</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-2.56</v>
+        <v>-2.02</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>80253.71000000001</v>
+        <v>44368.5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>109241.18</v>
+        <v>136101.55</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>176443.94</v>
+        <v>240696.34</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>139011.71</v>
+        <v>108077.54</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>3.27</v>
+        <v>0.67</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>4.45</v>
+        <v>2.05</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>7.19</v>
+        <v>3.63</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>5.66</v>
+        <v>1.63</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>3.01</v>
+        <v>1.68</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>3.43</v>
+        <v>5.11</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>7.11</v>
+        <v>7.56</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1.64</v>
+        <v>0.9</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.71</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-0.6</v>
+        <v>-0.35</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-4.2</v>
+        <v>-2.25</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-0.5</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>002362</t>
+          <t>000063</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>汉王科技</t>
+          <t>中兴通讯</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.83</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>3.44</v>
+        <v>2.9</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3.1</v>
+        <v>2.61</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-6.16</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>525912.0600000001</v>
+        <v>255784.8</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>657215.8100000001</v>
+        <v>557332.38</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>723046.38</v>
+        <v>1242595.5</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>714541.5</v>
+        <v>798358.77</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>25.42</v>
+        <v>0.64</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>31.77</v>
+        <v>1.4</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>34.95</v>
+        <v>3.12</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>34.54</v>
+        <v>2</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>3.33</v>
+        <v>0.93</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>4.97</v>
+        <v>3.89</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>3.12</v>
+        <v>-0.2</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-1.14</v>
+        <v>-0.46</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-6.09</v>
+        <v>-0.42</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-3.41</v>
+        <v>-0.52</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-5.38</v>
+        <v>-6.2</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>-7.44</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>002519</t>
+          <t>000572</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>银河电子</t>
+          <t>海马汽车</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2.67</v>
+        <v>5.58</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4.82</v>
+        <v>3.64</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-4.07</v>
+        <v>-5.27</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>185717</v>
+        <v>87392.31</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>397974.59</v>
+        <v>935836.88</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>733648.62</v>
+        <v>1078423.62</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>641418.97</v>
+        <v>533083.4399999999</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1.87</v>
+        <v>0.53</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>4.01</v>
+        <v>5.7</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>7.4</v>
+        <v>6.57</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>6.47</v>
+        <v>3.25</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>3.24</v>
+        <v>10</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>8.529999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>1.06</v>
+        <v>-0.18</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-0.2</v>
+        <v>-0.58</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>-0.74</v>
+        <v>0.36</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-4.96</v>
+        <v>-5.8</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>1.22</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>002827</t>
+          <t>000999</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>高争民爆</t>
+          <t>华润三九</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.95</v>
+        <v>1.35</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-3.96</v>
+        <v>0.44</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>40384</v>
+        <v>54138.86</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>76805.5</v>
+        <v>127525.19</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>176988.52</v>
+        <v>173966.27</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>133602.92</v>
+        <v>97033.00999999999</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1.46</v>
+        <v>0.55</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>6.41</v>
+        <v>1.78</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>4.84</v>
+        <v>0.99</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>2.72</v>
+        <v>6.37</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>5.39</v>
+        <v>6.65</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>-1.03</v>
+        <v>0.21</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>-0.82</v>
+        <v>-0.02</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-4.85</v>
+        <v>-2.68</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-1.22</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>600351</t>
+          <t>002373</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>亚宝药业</t>
+          <t>千方科技</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.98</v>
+        <v>1.41</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.43</v>
+        <v>6.68</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.63</v>
+        <v>2.17</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-0.47</v>
+        <v>-5.19</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>79914.33</v>
+        <v>119697.76</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>154809.06</v>
+        <v>405537.69</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>189877.41</v>
+        <v>469798.56</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>199931.96</v>
+        <v>320793.21</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1.04</v>
+        <v>0.87</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2.01</v>
+        <v>2.95</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>2.47</v>
+        <v>3.42</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.98</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>2.75</v>
+        <v>7.42</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>2.84</v>
+        <v>6.35</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>1.88</v>
+        <v>0.43</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>-0.32</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>-1.73</v>
+        <v>-6.04</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>-0.55</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>600362</t>
+          <t>002429</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>江西铜业</t>
+          <t>兆驰股份</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2.58</v>
+        <v>3.07</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-3.09</v>
+        <v>-0.44</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>95452.45</v>
+        <v>323310.62</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>347873.62</v>
+        <v>508761.88</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>469410.44</v>
+        <v>1100428.62</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>283250.84</v>
+        <v>567093.48</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2.26</v>
+        <v>2.45</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1.17</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>5.84</v>
+        <v>3.54</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>-0.8</v>
+        <v>1.33</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>-0.53</v>
+        <v>-0.24</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.58</v>
+        <v>-0.71</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>-0.26</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>-4.19</v>
+        <v>-1.33</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>600498</t>
+          <t>002873</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>烽火通信</t>
+          <t>新天药业</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.06</v>
+        <v>1.75</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3.21</v>
+        <v>3.63</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>6.17</v>
+        <v>1.53</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-3.23</v>
+        <v>0.06</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>155610.19</v>
+        <v>77374.23</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>248450.59</v>
+        <v>167952.05</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>414040.72</v>
+        <v>192179.92</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>429426.26</v>
+        <v>149017.99</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.38</v>
+        <v>3.48</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2.2</v>
+        <v>7.56</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>3.66</v>
+        <v>8.65</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3.8</v>
+        <v>6.71</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>2.45</v>
+        <v>3.16</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>5.38</v>
+        <v>6.13</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>6.36</v>
+        <v>6.94</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>2.04</v>
+        <v>2.51</v>
       </c>
       <c r="T8" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="U8" s="0" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <v>0.2</v>
-      </c>
       <c r="V8" s="0" t="n">
-        <v>0.51</v>
+        <v>0.13</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>-4.07</v>
+        <v>-2.51</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>-0.96</v>
+        <v>-0.7</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>-0.65</v>
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>鸿合科技</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>28764.03</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>45863.12</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>150076.52</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>122506.72</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>600557</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>康缘药业</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>99228.41</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>148706.48</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>216642.83</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>139947.57</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>600780</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>通宝能源</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>119908.9</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>271325.72</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>375808.03</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>294373.17</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>-3.42</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>600976</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>健民集团</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>14924.65</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>26820.21</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>42940.61</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>23478.46</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/MachineLearning/data/stock_3yang1tiao.xlsx
+++ b/MachineLearning/data/stock_3yang1tiao.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y159"/>
+  <dimension ref="A1:Y161"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A269" sqref="A136:XFD269"/>
@@ -13795,6 +13795,172 @@
         <v>-1.79</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>301045</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>天禄科技</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>8823.33</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>13461.99</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <v>46290.16</v>
+      </c>
+      <c r="K160" s="0" t="n">
+        <v>30148.93</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M160" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="N160" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O160" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="P160" s="0" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q160" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R160" s="0" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="S160" s="0" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="T160" s="0" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="U160" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V160" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W160" s="0" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="X160" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y160" s="0" t="n">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>301339</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>通行宝</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>53823.47</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>88361.25999999999</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>100613.16</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <v>57664.25</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="M161" s="0" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="N161" s="0" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="O161" s="0" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="P161" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q161" s="0" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S161" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="T161" s="0" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="U161" s="0" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="W161" s="0" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="X161" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y161" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -13808,7 +13974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -13949,167 +14115,333 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>301045</t>
+          <t>300147</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>天禄科技</t>
+          <t>香雪制药</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1.77</v>
+        <v>0.51</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.16</v>
+        <v>3.21</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5.41</v>
+        <v>5.57</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-2</v>
+        <v>-2.33</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8823.33</v>
+        <v>205903.7</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>13461.99</v>
+        <v>595527.75</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>46290.16</v>
+        <v>827923.8100000001</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>28185.96</v>
+        <v>413507.92</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1.7</v>
+        <v>3.14</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2.59</v>
+        <v>9.08</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>8.9</v>
+        <v>12.62</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>5.42</v>
+        <v>6.3</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>2.09</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>2.63</v>
+        <v>4.22</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>10.57</v>
+        <v>7.53</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>-0.59</v>
+        <v>-1.24</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>-0.27</v>
+        <v>-0.51</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>0.72</v>
+        <v>-2.13</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-4.4</v>
+        <v>-4.34</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>0.06</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>301339</t>
+          <t>300158</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>通行宝</t>
+          <t>振东制药</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>822602.0600000001</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1379492.12</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1586526.25</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>993338.6</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>300199</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>翰宇药业</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>427964.56</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>838800.5</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1057460.88</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>691006.88</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>300485</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>赛升药业</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>-2.81</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>53823.47</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>88361.25999999999</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>100613.16</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>53173.25</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>-2.03</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>-4.64</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>1.78</v>
+      <c r="E5" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>116160.28</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>217750.69</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>264349.81</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>168446.81</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>-2.24</v>
       </c>
     </row>
   </sheetData>
@@ -14124,7 +14456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y128"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <selection activeCell="E123" sqref="E123"/>
@@ -24296,584 +24628,1414 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="0" t="inlineStr">
         <is>
           <t>002227</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="0" t="inlineStr">
         <is>
           <t>奥特迅</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="0" t="n">
         <v>1.96</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="0" t="n">
         <v>2.19</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" s="0" t="n">
         <v>2.21</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122" s="0" t="n">
         <v>-2.56</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122" s="0" t="n">
         <v>80253.71000000001</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122" s="0" t="n">
         <v>109241.18</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122" s="0" t="n">
         <v>176443.94</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122" s="0" t="n">
         <v>139011.7</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L122" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="M122" t="n">
+      <c r="M122" s="0" t="n">
         <v>4.45</v>
       </c>
-      <c r="N122" t="n">
+      <c r="N122" s="0" t="n">
         <v>7.19</v>
       </c>
-      <c r="O122" t="n">
+      <c r="O122" s="0" t="n">
         <v>5.67</v>
       </c>
-      <c r="P122" t="n">
+      <c r="P122" s="0" t="n">
         <v>3.01</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q122" s="0" t="n">
         <v>3.43</v>
       </c>
-      <c r="R122" t="n">
+      <c r="R122" s="0" t="n">
         <v>7.11</v>
       </c>
-      <c r="S122" t="n">
+      <c r="S122" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="T122" t="n">
+      <c r="T122" s="0" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="U122" t="n">
+      <c r="U122" s="0" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="V122" t="n">
+      <c r="V122" s="0" t="n">
         <v>-0.6</v>
       </c>
-      <c r="W122" t="n">
+      <c r="W122" s="0" t="n">
         <v>-4.2</v>
       </c>
-      <c r="X122" t="n">
+      <c r="X122" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y122" t="n">
+      <c r="Y122" s="0" t="n">
         <v>-2.9</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="0" t="inlineStr">
         <is>
           <t>002362</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="0" t="inlineStr">
         <is>
           <t>汉王科技</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="0" t="n">
         <v>3.44</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" s="0" t="n">
         <v>3.1</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123" s="0" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123" s="0" t="n">
         <v>525912.0600000001</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123" s="0" t="n">
         <v>657215.8100000001</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123" s="0" t="n">
         <v>723046.38</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123" s="0" t="n">
         <v>714541.5</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L123" s="0" t="n">
         <v>25.42</v>
       </c>
-      <c r="M123" t="n">
+      <c r="M123" s="0" t="n">
         <v>31.77</v>
       </c>
-      <c r="N123" t="n">
+      <c r="N123" s="0" t="n">
         <v>34.95</v>
       </c>
-      <c r="O123" t="n">
+      <c r="O123" s="0" t="n">
         <v>34.54</v>
       </c>
-      <c r="P123" t="n">
+      <c r="P123" s="0" t="n">
         <v>3.33</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" s="0" t="n">
         <v>4.97</v>
       </c>
-      <c r="R123" t="n">
+      <c r="R123" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="S123" t="n">
+      <c r="S123" s="0" t="n">
         <v>3.12</v>
       </c>
-      <c r="T123" t="n">
+      <c r="T123" s="0" t="n">
         <v>-1.14</v>
       </c>
-      <c r="U123" t="n">
+      <c r="U123" s="0" t="n">
         <v>-6.09</v>
       </c>
-      <c r="V123" t="n">
+      <c r="V123" s="0" t="n">
         <v>-3.41</v>
       </c>
-      <c r="W123" t="n">
+      <c r="W123" s="0" t="n">
         <v>-5.38</v>
       </c>
-      <c r="X123" t="n">
+      <c r="X123" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y123" t="n">
+      <c r="Y123" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="0" t="inlineStr">
         <is>
           <t>002519</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="0" t="inlineStr">
         <is>
           <t>银河电子</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="0" t="n">
         <v>0.57</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" s="0" t="n">
         <v>4.82</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124" s="0" t="n">
         <v>-4.07</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124" s="0" t="n">
         <v>185717</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124" s="0" t="n">
         <v>397974.59</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124" s="0" t="n">
         <v>733648.62</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124" s="0" t="n">
         <v>641418.9399999999</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L124" s="0" t="n">
         <v>1.87</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M124" s="0" t="n">
         <v>4.01</v>
       </c>
-      <c r="N124" t="n">
+      <c r="N124" s="0" t="n">
         <v>7.4</v>
       </c>
-      <c r="O124" t="n">
+      <c r="O124" s="0" t="n">
         <v>6.47</v>
       </c>
-      <c r="P124" t="n">
+      <c r="P124" s="0" t="n">
         <v>0.76</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" s="0" t="n">
         <v>3.24</v>
       </c>
-      <c r="R124" t="n">
+      <c r="R124" s="0" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="S124" t="n">
+      <c r="S124" s="0" t="n">
         <v>1.06</v>
       </c>
-      <c r="T124" t="n">
+      <c r="T124" s="0" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U124" t="n">
+      <c r="U124" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="V124" t="n">
+      <c r="V124" s="0" t="n">
         <v>-0.74</v>
       </c>
-      <c r="W124" t="n">
+      <c r="W124" s="0" t="n">
         <v>-4.96</v>
       </c>
-      <c r="X124" t="n">
+      <c r="X124" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y124" t="n">
+      <c r="Y124" s="0" t="n">
         <v>-2.03</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="0" t="inlineStr">
         <is>
           <t>002827</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="0" t="inlineStr">
         <is>
           <t>高争民爆</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="0" t="n">
         <v>0.95</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" s="0" t="n">
         <v>3.75</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125" s="0" t="n">
         <v>-3.96</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125" s="0" t="n">
         <v>40384</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125" s="0" t="n">
         <v>76805.5</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125" s="0" t="n">
         <v>176988.52</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125" s="0" t="n">
         <v>133602.92</v>
       </c>
-      <c r="L125" t="n">
+      <c r="L125" s="0" t="n">
         <v>1.46</v>
       </c>
-      <c r="M125" t="n">
+      <c r="M125" s="0" t="n">
         <v>2.78</v>
       </c>
-      <c r="N125" t="n">
+      <c r="N125" s="0" t="n">
         <v>6.41</v>
       </c>
-      <c r="O125" t="n">
+      <c r="O125" s="0" t="n">
         <v>4.84</v>
       </c>
-      <c r="P125" t="n">
+      <c r="P125" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="Q125" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="R125" t="n">
+      <c r="R125" s="0" t="n">
         <v>5.39</v>
       </c>
-      <c r="S125" t="n">
+      <c r="S125" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="T125" t="n">
+      <c r="T125" s="0" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="U125" t="n">
+      <c r="U125" s="0" t="n">
         <v>-1.03</v>
       </c>
-      <c r="V125" t="n">
+      <c r="V125" s="0" t="n">
         <v>-0.82</v>
       </c>
-      <c r="W125" t="n">
+      <c r="W125" s="0" t="n">
         <v>-4.85</v>
       </c>
-      <c r="X125" t="n">
+      <c r="X125" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y125" t="n">
+      <c r="Y125" s="0" t="n">
         <v>4.86</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="0" t="inlineStr">
         <is>
           <t>600351</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="0" t="inlineStr">
         <is>
           <t>亚宝药业</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="0" t="n">
         <v>2.43</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126" s="0" t="n">
         <v>-0.47</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126" s="0" t="n">
         <v>79914.33</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126" s="0" t="n">
         <v>154809.06</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126" s="0" t="n">
         <v>189877.41</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126" s="0" t="n">
         <v>199931.95</v>
       </c>
-      <c r="L126" t="n">
+      <c r="L126" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="M126" t="n">
+      <c r="M126" s="0" t="n">
         <v>2.01</v>
       </c>
-      <c r="N126" t="n">
+      <c r="N126" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="O126" t="n">
+      <c r="O126" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="P126" t="n">
+      <c r="P126" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="R126" t="n">
+      <c r="R126" s="0" t="n">
         <v>2.84</v>
       </c>
-      <c r="S126" t="n">
+      <c r="S126" s="0" t="n">
         <v>1.88</v>
       </c>
-      <c r="T126" t="n">
+      <c r="T126" s="0" t="n">
         <v>0.16</v>
       </c>
-      <c r="U126" t="n">
+      <c r="U126" s="0" t="n">
         <v>-0.32</v>
       </c>
-      <c r="V126" t="n">
+      <c r="V126" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W126" t="n">
+      <c r="W126" s="0" t="n">
         <v>-1.73</v>
       </c>
-      <c r="X126" t="n">
+      <c r="X126" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y126" t="n">
+      <c r="Y126" s="0" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="0" t="inlineStr">
         <is>
           <t>600362</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="0" t="inlineStr">
         <is>
           <t>江西铜业</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127" s="0" t="n">
         <v>-3.09</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" s="0" t="n">
         <v>95452.45</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127" s="0" t="n">
         <v>347873.62</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127" s="0" t="n">
         <v>469410.44</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127" s="0" t="n">
         <v>283250.84</v>
       </c>
-      <c r="L127" t="n">
+      <c r="L127" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="N127" t="n">
+      <c r="N127" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="O127" t="n">
+      <c r="O127" s="0" t="n">
         <v>1.36</v>
       </c>
-      <c r="P127" t="n">
+      <c r="P127" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="Q127" s="0" t="n">
         <v>5.84</v>
       </c>
-      <c r="R127" t="n">
+      <c r="R127" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S127" t="n">
+      <c r="S127" s="0" t="n">
         <v>-0.8</v>
       </c>
-      <c r="T127" t="n">
+      <c r="T127" s="0" t="n">
         <v>-0.53</v>
       </c>
-      <c r="U127" t="n">
+      <c r="U127" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="V127" t="n">
+      <c r="V127" s="0" t="n">
         <v>-0.26</v>
       </c>
-      <c r="W127" t="n">
+      <c r="W127" s="0" t="n">
         <v>-4.19</v>
       </c>
-      <c r="X127" t="n">
+      <c r="X127" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y127" t="n">
+      <c r="Y127" s="0" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="0" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="0" t="inlineStr">
         <is>
           <t>600498</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="0" t="inlineStr">
         <is>
           <t>烽火通信</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="0" t="n">
         <v>1.06</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128" s="0" t="n">
         <v>6.17</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128" s="0" t="n">
         <v>-3.23</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128" s="0" t="n">
         <v>155610.19</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128" s="0" t="n">
         <v>248450.59</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128" s="0" t="n">
         <v>414040.72</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128" s="0" t="n">
         <v>429426.25</v>
       </c>
-      <c r="L128" t="n">
+      <c r="L128" s="0" t="n">
         <v>1.38</v>
       </c>
-      <c r="M128" t="n">
+      <c r="M128" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="N128" t="n">
+      <c r="N128" s="0" t="n">
         <v>3.66</v>
       </c>
-      <c r="O128" t="n">
+      <c r="O128" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="P128" t="n">
+      <c r="P128" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="Q128" s="0" t="n">
         <v>5.38</v>
       </c>
-      <c r="R128" t="n">
+      <c r="R128" s="0" t="n">
         <v>6.36</v>
       </c>
-      <c r="S128" t="n">
+      <c r="S128" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="T128" t="n">
+      <c r="T128" s="0" t="n">
         <v>-0.2</v>
       </c>
-      <c r="U128" t="n">
+      <c r="U128" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="V128" t="n">
+      <c r="V128" s="0" t="n">
         <v>0.51</v>
       </c>
-      <c r="W128" t="n">
+      <c r="W128" s="0" t="n">
         <v>-4.07</v>
       </c>
-      <c r="X128" t="n">
+      <c r="X128" s="0" t="n">
         <v>-0.39</v>
       </c>
-      <c r="Y128" t="n">
+      <c r="Y128" s="0" t="n">
         <v>-1.92</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>中洲控股</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>44368.5</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>136101.55</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>240696.34</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>115449.56</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y129" s="0" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>中兴通讯</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>255784.8</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>557332.38</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>1242595.5</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>848566</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y130" s="0" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>海马汽车</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>87392.31</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>935836.88</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>1078423.62</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>562977.4399999999</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="S131" s="0" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="X131" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y131" s="0" t="n">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>000999</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>华润三九</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>54138.86</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>127525.19</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>173966.27</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>101492.83</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N132" s="0" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q132" s="0" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="S132" s="0" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="W132" s="0" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="X132" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y132" s="0" t="n">
+        <v>-2.11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>002373</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>千方科技</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>119697.76</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>405537.69</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>469798.56</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>335215.88</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N133" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O133" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q133" s="0" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S133" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="X133" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y133" s="0" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>002429</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>兆驰股份</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>323310.62</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>508761.88</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>1100428.62</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>582805.6899999999</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N134" s="0" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O134" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q134" s="0" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="S134" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T134" s="0" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="X134" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y134" s="0" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>002873</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>新天药业</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>77374.23</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>167952.05</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>192179.92</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>154838.98</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="N135" s="0" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q135" s="0" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="S135" s="0" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="T135" s="0" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="X135" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y135" s="0" t="n">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>鸿合科技</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>28764.03</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>45863.12</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>150076.52</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>127506.72</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q136" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="T136" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W136" s="0" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="X136" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y136" s="0" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>600557</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>康缘药业</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>99228.41</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>148706.48</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>216642.83</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>144203.81</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q137" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="S137" s="0" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="X137" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y137" s="0" t="n">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>600976</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>健民集团</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>14924.65</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>26820.21</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>42940.61</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>24078.18</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O138" s="0" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q138" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="S138" s="0" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T138" s="0" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="X138" s="0" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y138" s="0" t="n">
+        <v>9.99</v>
       </c>
     </row>
   </sheetData>
@@ -24887,7 +26049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -25025,914 +26187,333 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>000042</t>
+          <t>000529</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>中洲控股</t>
+          <t>广弘控股</t>
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2.26</v>
+        <v>3.84</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3.37</v>
+        <v>5.66</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-2.02</v>
+        <v>-2.19</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>44368.5</v>
+        <v>160549</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>136101.55</v>
+        <v>572034.1899999999</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>240696.34</v>
+        <v>632556</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>108077.54</v>
+        <v>410564.13</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.67</v>
+        <v>2.82</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2.05</v>
+        <v>10.04</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3.63</v>
+        <v>11.1</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1.63</v>
+        <v>7.2</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>5.11</v>
+        <v>7.67</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>7.56</v>
+        <v>7.04</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>-0.71</v>
+        <v>-0.24</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>-0.35</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>-2.25</v>
+        <v>-5.25</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>-0.15</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>000063</t>
+          <t>002406</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>中兴通讯</t>
+          <t>远东传动</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.43</v>
+        <v>3.91</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.9</v>
+        <v>6.63</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2.61</v>
+        <v>1.85</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-6.16</v>
+        <v>1.65</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>255784.8</v>
+        <v>400284.81</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>557332.38</v>
+        <v>945594.75</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1242595.5</v>
+        <v>987648.62</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>798358.77</v>
+        <v>625505.49</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.64</v>
+        <v>8.07</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.4</v>
+        <v>19.06</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3.12</v>
+        <v>19.91</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2</v>
+        <v>12.61</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.93</v>
+        <v>5.59</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>3.89</v>
+        <v>10.04</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>6.8</v>
+        <v>7.73</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>-0.2</v>
+        <v>3.63</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>-0.42</v>
+        <v>-0.9</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>-0.52</v>
+        <v>-2.52</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>-6.2</v>
+        <v>-2.97</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>1.5</v>
+        <v>-9.720000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>000572</t>
+          <t>002750</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>海马汽车</t>
+          <t>龙津药业</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5.58</v>
+        <v>4.75</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.64</v>
+        <v>6.07</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-5.27</v>
+        <v>-4.12</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>87392.31</v>
+        <v>220811.72</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>935836.88</v>
+        <v>303053.03</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1078423.62</v>
+        <v>463194.09</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>533083.4399999999</v>
+        <v>267224.68</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.53</v>
+        <v>5.55</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>5.7</v>
+        <v>7.61</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>6.57</v>
+        <v>11.63</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>3.25</v>
+        <v>6.71</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.78</v>
+        <v>4.54</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>6.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>-0.18</v>
+        <v>-1.6</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>-0.58</v>
+        <v>-0.35</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0</v>
+        <v>-1.27</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.36</v>
+        <v>-2.1</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>-5.8</v>
+        <v>-5.87</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>-0.18</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>000999</t>
+          <t>600833</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>华润三九</t>
+          <t>第一医药</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.35</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.38</v>
+        <v>5.05</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.44</v>
+        <v>-2.86</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>54138.86</v>
+        <v>43976.73</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>127525.19</v>
+        <v>185263.09</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>173966.27</v>
+        <v>226224.45</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>97033.00999999999</v>
+        <v>159367.67</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.55</v>
+        <v>1.97</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1.78</v>
+        <v>10.14</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.99</v>
+        <v>7.14</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>6.37</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>6.65</v>
+        <v>4.5</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>2.61</v>
+        <v>-0.54</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>-0.61</v>
+        <v>-0.25</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.21</v>
+        <v>1.99</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>-0.02</v>
+        <v>-3.86</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>-2.68</v>
+        <v>-4.87</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>-0.7</v>
+        <v>2.06</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>-1.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>002373</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>千方科技</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>-5.19</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>119697.76</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>405537.69</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>469798.56</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>320793.21</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>-6.04</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>002429</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>兆驰股份</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>323310.62</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>508761.88</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1100428.62</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>567093.48</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>002873</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>新天药业</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>77374.23</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>167952.05</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>192179.92</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>149017.99</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>-1.67</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>002955</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>鸿合科技</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>28764.03</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>45863.12</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>150076.52</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>122506.72</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>-0.33</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>600557</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>康缘药业</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>99228.41</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>148706.48</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>216642.83</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>139947.57</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>-3.03</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>600780</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>通宝能源</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>119908.9</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>271325.72</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>375808.03</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>294373.17</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>-3.42</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>-3.32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>600976</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>健民集团</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>14924.65</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>26820.21</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>42940.61</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>23478.46</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>0.63</v>
+        <v>-5.43</v>
       </c>
     </row>
   </sheetData>
